--- a/Final/Data/Test Forecast/Fit to Submission Template.xlsx
+++ b/Final/Data/Test Forecast/Fit to Submission Template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcpud-my.sharepoint.com/personal/sharrington_gcpud_org/Documents/Personal/School/Time Series/Final/Data/Test Forecast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{51E3CF9D-9E9E-4F69-A90A-1CE47FBDFD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{51E3CF9D-9E9E-4F69-A90A-1CE47FBDFD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83D92ACC-CE00-4254-B4CC-F88EE6F37E22}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="17496" windowHeight="10416"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="17496" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission_fit3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,11 +896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="M402" sqref="M402"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>12.4263271326948</v>
       </c>
       <c r="E2" t="str">
         <f>B2&amp;A2&amp;C2</f>
@@ -953,11 +966,11 @@
       </c>
       <c r="K2">
         <f>_xlfn.XLOOKUP(J2,$E$2:$E$417,$D$2:$D$417)</f>
-        <v>5</v>
+        <v>12.4263271326948</v>
       </c>
       <c r="L2">
         <f>ROUND(K2,0)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -971,7 +984,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>12.4263271326948</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="0">B3&amp;A3&amp;C3</f>
@@ -992,11 +1005,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" si="2">_xlfn.XLOOKUP(J3,$E$2:$E$417,$D$2:$D$417)</f>
-        <v>5</v>
+        <v>12.4263271326948</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="3">ROUND(K3,0)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1010,7 +1023,7 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>12.4263271326948</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -1031,11 +1044,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12.4263271326948</v>
       </c>
       <c r="L4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1049,7 +1062,7 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>18.4670398360973</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -1070,11 +1083,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18.4670398360973</v>
       </c>
       <c r="L5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>7.3522802902007198</v>
+        <v>19.6944140786605</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -1109,11 +1122,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>7.3522802902007198</v>
+        <v>19.6944140786605</v>
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1127,7 +1140,7 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>14.442236172457299</v>
+        <v>20.758603198644199</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -1148,11 +1161,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>14.442236172457299</v>
+        <v>20.758603198644199</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1166,7 +1179,7 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>11.160041846957</v>
+        <v>21.142189764838001</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -1187,11 +1200,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>11.160041846957</v>
+        <v>21.142189764838001</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1205,7 +1218,7 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>4.9016037017136096</v>
+        <v>19.283117496058299</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -1226,11 +1239,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>4.9016037017136096</v>
+        <v>19.283117496058299</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1244,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="D10">
-        <v>5.3491344077119702</v>
+        <v>23.286111768593202</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -1265,11 +1278,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>5.3491344077119702</v>
+        <v>23.286111768593202</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1283,7 +1296,7 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>12.6284250152966</v>
+        <v>23.894087063500699</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -1304,11 +1317,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>12.6284250152966</v>
+        <v>23.894087063500699</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1322,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>18.737345668872798</v>
+        <v>26.181659867329898</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -1343,11 +1356,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>18.737345668872798</v>
+        <v>26.181659867329898</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1361,7 +1374,7 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>18.575870295051502</v>
+        <v>25.821724051629499</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -1382,11 +1395,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>18.575870295051502</v>
+        <v>25.821724051629499</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1400,7 +1413,7 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>15.793215576883</v>
+        <v>26.760001111867801</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -1421,11 +1434,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>15.793215576883</v>
+        <v>26.760001111867801</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1439,7 +1452,7 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <v>16.764097892340899</v>
+        <v>27.587717679137601</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -1460,11 +1473,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>16.764097892340899</v>
+        <v>27.587717679137601</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1478,7 +1491,7 @@
         <v>32</v>
       </c>
       <c r="D16">
-        <v>21.604449796286598</v>
+        <v>30.270338088165701</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -1499,11 +1512,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>21.604449796286598</v>
+        <v>30.270338088165701</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1517,7 +1530,7 @@
         <v>33</v>
       </c>
       <c r="D17">
-        <v>24.200082057439399</v>
+        <v>31.957874860610399</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -1538,11 +1551,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>24.200082057439399</v>
+        <v>31.957874860610399</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1556,7 +1569,7 @@
         <v>34</v>
       </c>
       <c r="D18">
-        <v>20.862347400812698</v>
+        <v>37.713812001385499</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -1577,11 +1590,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>20.862347400812698</v>
+        <v>37.713812001385499</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1595,7 +1608,7 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>15.9504279618886</v>
+        <v>38.131344031895601</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -1616,11 +1629,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>15.9504279618886</v>
+        <v>38.131344031895601</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1634,7 +1647,7 @@
         <v>36</v>
       </c>
       <c r="D20">
-        <v>16.971539726342598</v>
+        <v>42.778733492954601</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -1655,11 +1668,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>16.971539726342598</v>
+        <v>42.778733492954601</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1673,7 +1686,7 @@
         <v>37</v>
       </c>
       <c r="D21">
-        <v>25.304604347296799</v>
+        <v>44.260731164990197</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -1694,11 +1707,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>25.304604347296799</v>
+        <v>44.260731164990197</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1712,7 +1725,7 @@
         <v>38</v>
       </c>
       <c r="D22">
-        <v>34.172125141336402</v>
+        <v>46.2542264914415</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -1733,11 +1746,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>34.172125141336402</v>
+        <v>46.2542264914415</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1751,7 +1764,7 @@
         <v>39</v>
       </c>
       <c r="D23">
-        <v>36.284574605295298</v>
+        <v>47.207538296057002</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -1772,11 +1785,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>36.284574605295298</v>
+        <v>47.207538296057002</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1790,7 +1803,7 @@
         <v>40</v>
       </c>
       <c r="D24">
-        <v>31.678536406499902</v>
+        <v>51.030621790999703</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -1811,11 +1824,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>31.678536406499902</v>
+        <v>51.030621790999703</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1829,7 +1842,7 @@
         <v>41</v>
       </c>
       <c r="D25">
-        <v>26.6292385261367</v>
+        <v>54.125894617210598</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -1850,11 +1863,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
-        <v>26.6292385261367</v>
+        <v>54.125894617210598</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1868,7 +1881,7 @@
         <v>42</v>
       </c>
       <c r="D26">
-        <v>25.9128350674182</v>
+        <v>62.806098971199397</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -1889,11 +1902,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>25.9128350674182</v>
+        <v>62.806098971199397</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1907,7 +1920,7 @@
         <v>43</v>
       </c>
       <c r="D27">
-        <v>28.184886457231102</v>
+        <v>66.377485876899897</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -1928,11 +1941,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>28.184886457231102</v>
+        <v>66.377485876899897</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1946,7 +1959,7 @@
         <v>44</v>
       </c>
       <c r="D28">
-        <v>29.173489520238899</v>
+        <v>63.985771301428798</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -1967,11 +1980,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
-        <v>29.173489520238899</v>
+        <v>63.985771301428798</v>
       </c>
       <c r="L28">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1985,7 +1998,7 @@
         <v>45</v>
       </c>
       <c r="D29">
-        <v>27.350103905369899</v>
+        <v>60.807897476608296</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -2006,11 +2019,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
-        <v>27.350103905369899</v>
+        <v>60.807897476608296</v>
       </c>
       <c r="L29">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2024,7 +2037,7 @@
         <v>46</v>
       </c>
       <c r="D30">
-        <v>24.713160540639301</v>
+        <v>58.279522384497199</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -2045,11 +2058,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
-        <v>24.713160540639301</v>
+        <v>58.279522384497199</v>
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2063,7 +2076,7 @@
         <v>47</v>
       </c>
       <c r="D31">
-        <v>22.8755365341421</v>
+        <v>51.154340544358803</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -2084,11 +2097,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="2"/>
-        <v>22.8755365341421</v>
+        <v>51.154340544358803</v>
       </c>
       <c r="L31">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2102,7 +2115,7 @@
         <v>48</v>
       </c>
       <c r="D32">
-        <v>20.803710768548601</v>
+        <v>43.451516060105597</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -2123,11 +2136,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="2"/>
-        <v>20.803710768548601</v>
+        <v>43.451516060105597</v>
       </c>
       <c r="L32">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2141,7 +2154,7 @@
         <v>49</v>
       </c>
       <c r="D33">
-        <v>17.2909995756781</v>
+        <v>31.813353197642599</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -2162,11 +2175,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="2"/>
-        <v>17.2909995756781</v>
+        <v>31.813353197642599</v>
       </c>
       <c r="L33">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2180,7 +2193,7 @@
         <v>50</v>
       </c>
       <c r="D34">
-        <v>13.9207792736124</v>
+        <v>22.6442512437856</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -2201,11 +2214,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="2"/>
-        <v>13.9207792736124</v>
+        <v>22.6442512437856</v>
       </c>
       <c r="L34">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2219,7 +2232,7 @@
         <v>51</v>
       </c>
       <c r="D35">
-        <v>13.518567264931299</v>
+        <v>21.748433953682898</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -2240,11 +2253,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="2"/>
-        <v>13.518567264931299</v>
+        <v>21.748433953682898</v>
       </c>
       <c r="L35">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2258,7 +2271,7 @@
         <v>52</v>
       </c>
       <c r="D36">
-        <v>15.909451030587601</v>
+        <v>21.294658640087</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -2279,11 +2292,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>15.909451030587601</v>
+        <v>21.294658640087</v>
       </c>
       <c r="L36">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2297,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>14.892087932996199</v>
+        <v>19.1120284292953</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -2318,11 +2331,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
-        <v>14.892087932996199</v>
+        <v>19.1120284292953</v>
       </c>
       <c r="L37">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2336,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>10.839470822782401</v>
+        <v>18.794827226458999</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -2357,11 +2370,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="2"/>
-        <v>10.839470822782401</v>
+        <v>18.794827226458999</v>
       </c>
       <c r="L38">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2375,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>9.5825428438874898</v>
+        <v>18.188562642473599</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -2396,11 +2409,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="2"/>
-        <v>9.5825428438874898</v>
+        <v>18.188562642473599</v>
       </c>
       <c r="L39">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2414,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>11.7641521802288</v>
+        <v>16.99211416392</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -2435,11 +2448,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="2"/>
-        <v>11.7641521802288</v>
+        <v>16.99211416392</v>
       </c>
       <c r="L40">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2453,7 +2466,7 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>12.9469410666097</v>
+        <v>15.349712002111801</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -2474,11 +2487,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="2"/>
-        <v>12.9469410666097</v>
+        <v>15.349712002111801</v>
       </c>
       <c r="L41">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2492,7 +2505,7 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>9.5936698154328006</v>
+        <v>13.8791758704623</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -2513,11 +2526,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="2"/>
-        <v>9.5936698154328006</v>
+        <v>13.8791758704623</v>
       </c>
       <c r="L42">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2531,7 +2544,7 @@
         <v>7</v>
       </c>
       <c r="D43">
-        <v>4.5573936683431304</v>
+        <v>12.566653775073201</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -2552,11 +2565,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="2"/>
-        <v>4.5573936683431304</v>
+        <v>12.566653775073201</v>
       </c>
       <c r="L43">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,7 +2583,7 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>3.96352043450679</v>
+        <v>11.1481060034046</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
@@ -2591,11 +2604,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="2"/>
-        <v>3.96352043450679</v>
+        <v>11.1481060034046</v>
       </c>
       <c r="L44">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2609,7 +2622,7 @@
         <v>9</v>
       </c>
       <c r="D45">
-        <v>8.5701333652395899</v>
+        <v>9.8692365562145294</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -2630,11 +2643,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="2"/>
-        <v>8.5701333652395899</v>
+        <v>9.8692365562145294</v>
       </c>
       <c r="L45">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2648,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="D46">
-        <v>11.2341994697417</v>
+        <v>8.8310392675562994</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -2669,11 +2682,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="2"/>
-        <v>11.2341994697417</v>
+        <v>8.8310392675562994</v>
       </c>
       <c r="L46">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2687,7 +2700,7 @@
         <v>11</v>
       </c>
       <c r="D47">
-        <v>5.6294238577756897</v>
+        <v>8.2872175204113194</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
@@ -2708,11 +2721,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="2"/>
-        <v>5.6294238577756897</v>
+        <v>8.2872175204113194</v>
       </c>
       <c r="L47">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2726,7 +2739,7 @@
         <v>12</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>7.9704017201277901</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
@@ -2747,11 +2760,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.9704017201277901</v>
       </c>
       <c r="L48">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2765,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>7.8435520001079801</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -2786,11 +2799,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.8435520001079801</v>
       </c>
       <c r="L49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2804,7 +2817,7 @@
         <v>14</v>
       </c>
       <c r="D50">
-        <v>14.8264972724209</v>
+        <v>7.8087682679591</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
@@ -2825,11 +2838,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="2"/>
-        <v>14.8264972724209</v>
+        <v>7.8087682679591</v>
       </c>
       <c r="L50">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2843,7 +2856,7 @@
         <v>15</v>
       </c>
       <c r="D51">
-        <v>39.806898597289504</v>
+        <v>8.2288736598342496</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
@@ -2864,11 +2877,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="2"/>
-        <v>39.806898597289504</v>
+        <v>8.2288736598342496</v>
       </c>
       <c r="L51">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2882,7 +2895,7 @@
         <v>16</v>
       </c>
       <c r="D52">
-        <v>51.861994074042698</v>
+        <v>8.6626992951639501</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -2903,11 +2916,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="2"/>
-        <v>51.861994074042698</v>
+        <v>8.6626992951639501</v>
       </c>
       <c r="L52">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2921,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="D53">
-        <v>40.297261148487401</v>
+        <v>9.14499538369442</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
@@ -2942,11 +2955,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="2"/>
-        <v>40.297261148487401</v>
+        <v>9.14499538369442</v>
       </c>
       <c r="L53">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2960,7 +2973,7 @@
         <v>18</v>
       </c>
       <c r="D54">
-        <v>14.9781160122547</v>
+        <v>9.6097007977521205</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -2981,11 +2994,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="2"/>
-        <v>14.9781160122547</v>
+        <v>9.6097007977521205</v>
       </c>
       <c r="L54">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2999,7 +3012,7 @@
         <v>19</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>10.004212999025601</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -3020,11 +3033,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.004212999025601</v>
       </c>
       <c r="L55">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3038,7 +3051,7 @@
         <v>20</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>10.4658076432409</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
@@ -3059,11 +3072,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.4658076432409</v>
       </c>
       <c r="L56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3077,7 +3090,7 @@
         <v>21</v>
       </c>
       <c r="D57">
-        <v>7.11889428255017</v>
+        <v>11.8577191702534</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
@@ -3098,11 +3111,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="2"/>
-        <v>7.11889428255017</v>
+        <v>11.8577191702534</v>
       </c>
       <c r="L57">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3116,7 +3129,7 @@
         <v>22</v>
       </c>
       <c r="D58">
-        <v>13.984089292593101</v>
+        <v>13.245589809222899</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -3137,11 +3150,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="2"/>
-        <v>13.984089292593101</v>
+        <v>13.245589809222899</v>
       </c>
       <c r="L58">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3155,7 +3168,7 @@
         <v>23</v>
       </c>
       <c r="D59">
-        <v>10.8063119680846</v>
+        <v>14.379568618236201</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
@@ -3176,11 +3189,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="2"/>
-        <v>10.8063119680846</v>
+        <v>14.379568618236201</v>
       </c>
       <c r="L59">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3194,7 +3207,7 @@
         <v>24</v>
       </c>
       <c r="D60">
-        <v>4.7463206624743099</v>
+        <v>15.8906487886217</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
@@ -3215,11 +3228,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="2"/>
-        <v>4.7463206624743099</v>
+        <v>15.8906487886217</v>
       </c>
       <c r="L60">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3233,7 +3246,7 @@
         <v>25</v>
       </c>
       <c r="D61">
-        <v>5.1797338387914298</v>
+        <v>17.905405722362602</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -3254,11 +3267,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
-        <v>5.1797338387914298</v>
+        <v>17.905405722362602</v>
       </c>
       <c r="L61">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3272,7 +3285,7 @@
         <v>26</v>
       </c>
       <c r="D62">
-        <v>12.228742724102601</v>
+        <v>20.520185577391398</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
@@ -3293,11 +3306,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
-        <v>12.228742724102601</v>
+        <v>20.520185577391398</v>
       </c>
       <c r="L62">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3311,7 +3324,7 @@
         <v>27</v>
       </c>
       <c r="D63">
-        <v>18.144926779456</v>
+        <v>22.3894755817653</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
@@ -3332,11 +3345,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="2"/>
-        <v>18.144926779456</v>
+        <v>22.3894755817653</v>
       </c>
       <c r="L63">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3350,7 +3363,7 @@
         <v>28</v>
       </c>
       <c r="D64">
-        <v>17.989276064494302</v>
+        <v>24.3668829195556</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -3371,11 +3384,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="2"/>
-        <v>17.989276064494302</v>
+        <v>24.3668829195556</v>
       </c>
       <c r="L64">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3389,7 +3402,7 @@
         <v>29</v>
       </c>
       <c r="D65">
-        <v>15.2950548017615</v>
+        <v>25.5635712668055</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
@@ -3410,11 +3423,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="2"/>
-        <v>15.2950548017615</v>
+        <v>25.5635712668055</v>
       </c>
       <c r="L65">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3428,7 +3441,7 @@
         <v>30</v>
       </c>
       <c r="D66">
-        <v>16.235881101085301</v>
+        <v>27.6159116367824</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
@@ -3449,11 +3462,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="2"/>
-        <v>16.235881101085301</v>
+        <v>27.6159116367824</v>
       </c>
       <c r="L66">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3467,7 +3480,7 @@
         <v>31</v>
       </c>
       <c r="D67">
-        <v>20.924582330320799</v>
+        <v>31.2710288576104</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="4">B67&amp;A67&amp;C67</f>
@@ -3488,11 +3501,11 @@
       </c>
       <c r="K67">
         <f t="shared" ref="K67:K130" si="6">_xlfn.XLOOKUP(J67,$E$2:$E$417,$D$2:$D$417)</f>
-        <v>20.924582330320799</v>
+        <v>31.2710288576104</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L130" si="7">ROUND(K67,0)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3506,7 +3519,7 @@
         <v>32</v>
       </c>
       <c r="D68">
-        <v>23.439677222551801</v>
+        <v>34.2289367599383</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="4"/>
@@ -3527,11 +3540,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="6"/>
-        <v>23.439677222551801</v>
+        <v>34.2289367599383</v>
       </c>
       <c r="L68">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3545,7 +3558,7 @@
         <v>33</v>
       </c>
       <c r="D69">
-        <v>20.207787596867998</v>
+        <v>38.341167673353802</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="4"/>
@@ -3566,11 +3579,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="6"/>
-        <v>20.207787596867998</v>
+        <v>38.341167673353802</v>
       </c>
       <c r="L69">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3584,7 +3597,7 @@
         <v>34</v>
       </c>
       <c r="D70">
-        <v>15.450583225869099</v>
+        <v>40.606473230673103</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="4"/>
@@ -3605,11 +3618,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="6"/>
-        <v>15.450583225869099</v>
+        <v>40.606473230673103</v>
       </c>
       <c r="L70">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3623,7 +3636,7 @@
         <v>35</v>
       </c>
       <c r="D71">
-        <v>16.440271863935699</v>
+        <v>43.911961650962397</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="4"/>
@@ -3644,11 +3657,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="6"/>
-        <v>16.440271863935699</v>
+        <v>43.911961650962397</v>
       </c>
       <c r="L71">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3662,7 +3675,7 @@
         <v>36</v>
       </c>
       <c r="D72">
-        <v>24.5135841065966</v>
+        <v>46.549655217768397</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="4"/>
@@ -3683,11 +3696,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="6"/>
-        <v>24.5135841065966</v>
+        <v>46.549655217768397</v>
       </c>
       <c r="L72">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3701,7 +3714,7 @@
         <v>37</v>
       </c>
       <c r="D73">
-        <v>33.105985423669999</v>
+        <v>50.211126978680902</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="4"/>
@@ -3722,11 +3735,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="6"/>
-        <v>33.105985423669999</v>
+        <v>50.211126978680902</v>
       </c>
       <c r="L73">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3740,7 +3753,7 @@
         <v>38</v>
       </c>
       <c r="D74">
-        <v>35.155135320517701</v>
+        <v>50.886997495079498</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="4"/>
@@ -3761,11 +3774,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="6"/>
-        <v>35.155135320517701</v>
+        <v>50.886997495079498</v>
       </c>
       <c r="L74">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3779,7 +3792,7 @@
         <v>39</v>
       </c>
       <c r="D75">
-        <v>30.694658732620098</v>
+        <v>55.6659284306971</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="4"/>
@@ -3800,11 +3813,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="6"/>
-        <v>30.694658732620098</v>
+        <v>55.6659284306971</v>
       </c>
       <c r="L75">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3818,7 +3831,7 @@
         <v>40</v>
       </c>
       <c r="D76">
-        <v>25.803758403042501</v>
+        <v>56.883390028112501</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="4"/>
@@ -3839,11 +3852,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="6"/>
-        <v>25.803758403042501</v>
+        <v>56.883390028112501</v>
       </c>
       <c r="L76">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3857,7 +3870,7 @@
         <v>41</v>
       </c>
       <c r="D77">
-        <v>25.110942808430899</v>
+        <v>58.698372883086897</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="4"/>
@@ -3878,11 +3891,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="6"/>
-        <v>25.110942808430899</v>
+        <v>58.698372883086897</v>
       </c>
       <c r="L77">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3896,7 +3909,7 @@
         <v>42</v>
       </c>
       <c r="D78">
-        <v>27.314221193551901</v>
+        <v>56.790824724712103</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="4"/>
@@ -3917,11 +3930,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="6"/>
-        <v>27.314221193551901</v>
+        <v>56.790824724712103</v>
       </c>
       <c r="L78">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3935,7 +3948,7 @@
         <v>43</v>
       </c>
       <c r="D79">
-        <v>28.273967119032001</v>
+        <v>56.353294644065699</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="4"/>
@@ -3956,11 +3969,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="6"/>
-        <v>28.273967119032001</v>
+        <v>56.353294644065699</v>
       </c>
       <c r="L79">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3974,7 +3987,7 @@
         <v>44</v>
       </c>
       <c r="D80">
-        <v>26.508352621971401</v>
+        <v>51.974041587563804</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="4"/>
@@ -3995,11 +4008,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="6"/>
-        <v>26.508352621971401</v>
+        <v>51.974041587563804</v>
       </c>
       <c r="L80">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -4013,7 +4026,7 @@
         <v>45</v>
       </c>
       <c r="D81">
-        <v>23.953855116964402</v>
+        <v>48.646028721950898</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="4"/>
@@ -4034,11 +4047,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="6"/>
-        <v>23.953855116964402</v>
+        <v>48.646028721950898</v>
       </c>
       <c r="L81">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -4052,7 +4065,7 @@
         <v>46</v>
       </c>
       <c r="D82">
-        <v>22.173781759509399</v>
+        <v>41.128693825289197</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="4"/>
@@ -4073,11 +4086,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="6"/>
-        <v>22.173781759509399</v>
+        <v>41.128693825289197</v>
       </c>
       <c r="L82">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -4091,7 +4104,7 @@
         <v>47</v>
       </c>
       <c r="D83">
-        <v>20.166418498509302</v>
+        <v>35.0646971486238</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="4"/>
@@ -4112,11 +4125,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="6"/>
-        <v>20.166418498509302</v>
+        <v>35.0646971486238</v>
       </c>
       <c r="L83">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -4130,7 +4143,7 @@
         <v>48</v>
       </c>
       <c r="D84">
-        <v>16.761967838141501</v>
+        <v>30.383193267599498</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="4"/>
@@ -4151,11 +4164,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="6"/>
-        <v>16.761967838141501</v>
+        <v>30.383193267599498</v>
       </c>
       <c r="L84">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -4169,7 +4182,7 @@
         <v>49</v>
       </c>
       <c r="D85">
-        <v>13.4952913939378</v>
+        <v>27.309147974539201</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="4"/>
@@ -4190,11 +4203,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="6"/>
-        <v>13.4952913939378</v>
+        <v>27.309147974539201</v>
       </c>
       <c r="L85">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -4208,7 +4221,7 @@
         <v>50</v>
       </c>
       <c r="D86">
-        <v>13.1057419738099</v>
+        <v>23.972263755983299</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="4"/>
@@ -4229,11 +4242,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="6"/>
-        <v>13.1057419738099</v>
+        <v>23.972263755983299</v>
       </c>
       <c r="L86">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -4247,7 +4260,7 @@
         <v>51</v>
       </c>
       <c r="D87">
-        <v>15.424081170640401</v>
+        <v>22.819278679652399</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="4"/>
@@ -4268,11 +4281,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="6"/>
-        <v>15.424081170640401</v>
+        <v>22.819278679652399</v>
       </c>
       <c r="L87">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -4286,7 +4299,7 @@
         <v>52</v>
       </c>
       <c r="D88">
-        <v>16.766029680271402</v>
+        <v>20.938794911629099</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="4"/>
@@ -4307,11 +4320,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="6"/>
-        <v>16.766029680271402</v>
+        <v>20.938794911629099</v>
       </c>
       <c r="L88">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4325,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>14.438715531046901</v>
+        <v>19.1163072076662</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="4"/>
@@ -4364,7 +4377,7 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>10.509747702286401</v>
+        <v>17.6823694521789</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="4"/>
@@ -4385,11 +4398,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="6"/>
-        <v>14.438715531046901</v>
+        <v>19.1163072076662</v>
       </c>
       <c r="L90">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -4403,7 +4416,7 @@
         <v>3</v>
       </c>
       <c r="D91">
-        <v>9.2912475542325392</v>
+        <v>15.9381464828649</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="4"/>
@@ -4424,11 +4437,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="6"/>
-        <v>10.509747702286401</v>
+        <v>17.6823694521789</v>
       </c>
       <c r="L91">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4442,7 +4455,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>11.4067917602442</v>
+        <v>15.2202040630008</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="4"/>
@@ -4463,11 +4476,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="6"/>
-        <v>9.2912475542325392</v>
+        <v>15.9381464828649</v>
       </c>
       <c r="L92">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4481,7 +4494,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>12.5539637270921</v>
+        <v>13.789772465262301</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="4"/>
@@ -4502,11 +4515,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="6"/>
-        <v>11.4067917602442</v>
+        <v>15.2202040630008</v>
       </c>
       <c r="L93">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4520,7 +4533,7 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>9.3026847707296803</v>
+        <v>12.193753026598699</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="4"/>
@@ -4541,11 +4554,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="6"/>
-        <v>12.5539637270921</v>
+        <v>13.789772465262301</v>
       </c>
       <c r="L94">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4559,7 +4572,7 @@
         <v>7</v>
       </c>
       <c r="D95">
-        <v>4.4192213807182199</v>
+        <v>11.524161915959301</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="4"/>
@@ -4580,11 +4593,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="6"/>
-        <v>9.3026847707296803</v>
+        <v>12.193753026598699</v>
       </c>
       <c r="L95">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4598,7 +4611,7 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>3.8433858172502302</v>
+        <v>11.315620451468201</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="4"/>
@@ -4619,11 +4632,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="6"/>
-        <v>4.4192213807182199</v>
+        <v>11.524161915959301</v>
       </c>
       <c r="L96">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4637,7 +4650,7 @@
         <v>9</v>
       </c>
       <c r="D97">
-        <v>8.3104943966027296</v>
+        <v>10.5200728880373</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="4"/>
@@ -4658,11 +4671,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="6"/>
-        <v>3.8433858172502302</v>
+        <v>11.315620451468201</v>
       </c>
       <c r="L97">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4676,7 +4689,7 @@
         <v>10</v>
       </c>
       <c r="D98">
-        <v>10.894061585444399</v>
+        <v>10.166221205246201</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="4"/>
@@ -4697,11 +4710,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="6"/>
-        <v>8.3104943966027296</v>
+        <v>10.5200728880373</v>
       </c>
       <c r="L98">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4715,7 +4728,7 @@
         <v>11</v>
       </c>
       <c r="D99">
-        <v>5.4590743163062099</v>
+        <v>9.1318589884397205</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="4"/>
@@ -4736,11 +4749,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="6"/>
-        <v>10.894061585444399</v>
+        <v>10.166221205246201</v>
       </c>
       <c r="L99">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4754,7 +4767,7 @@
         <v>12</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>8.54060570361335</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="4"/>
@@ -4775,11 +4788,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="6"/>
-        <v>5.4590743163062099</v>
+        <v>9.1318589884397205</v>
       </c>
       <c r="L100">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4793,7 +4806,7 @@
         <v>13</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>8.4205344448403405</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="4"/>
@@ -4814,11 +4827,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.54060570361335</v>
       </c>
       <c r="L101">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4832,7 +4845,7 @@
         <v>14</v>
       </c>
       <c r="D102">
-        <v>14.3776543367494</v>
+        <v>7.7524120286999496</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="4"/>
@@ -4853,11 +4866,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.4205344448403405</v>
       </c>
       <c r="L102">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4871,7 +4884,7 @@
         <v>15</v>
       </c>
       <c r="D103">
-        <v>38.604553473815002</v>
+        <v>7.0172651764238401</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="4"/>
@@ -4892,11 +4905,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="6"/>
-        <v>14.3776543367494</v>
+        <v>7.7524120286999496</v>
       </c>
       <c r="L103">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4910,7 +4923,7 @@
         <v>16</v>
       </c>
       <c r="D104">
-        <v>50.300466809428997</v>
+        <v>6.8007755233556901</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="4"/>
@@ -4931,11 +4944,11 @@
       </c>
       <c r="K104">
         <f t="shared" si="6"/>
-        <v>38.604553473815002</v>
+        <v>7.0172651764238401</v>
       </c>
       <c r="L104">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4949,7 +4962,7 @@
         <v>17</v>
       </c>
       <c r="D105">
-        <v>39.087673870191701</v>
+        <v>7.0936688175106699</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="4"/>
@@ -4970,11 +4983,11 @@
       </c>
       <c r="K105">
         <f t="shared" si="6"/>
-        <v>50.300466809428997</v>
+        <v>6.8007755233556901</v>
       </c>
       <c r="L105">
         <f t="shared" si="7"/>
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4988,7 +5001,7 @@
         <v>18</v>
       </c>
       <c r="D106">
-        <v>14.529352716584899</v>
+        <v>7.3430414239702904</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="4"/>
@@ -5009,11 +5022,11 @@
       </c>
       <c r="K106">
         <f t="shared" si="6"/>
-        <v>39.087673870191701</v>
+        <v>7.0936688175106699</v>
       </c>
       <c r="L106">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -5027,7 +5040,7 @@
         <v>19</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>8.2544862299589301</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="4"/>
@@ -5048,11 +5061,11 @@
       </c>
       <c r="K107">
         <f t="shared" si="6"/>
-        <v>14.529352716584899</v>
+        <v>7.3430414239702904</v>
       </c>
       <c r="L107">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -5066,7 +5079,7 @@
         <v>20</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>9.0336850410849099</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="4"/>
@@ -5087,11 +5100,11 @@
       </c>
       <c r="K108">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.2544862299589301</v>
       </c>
       <c r="L108">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -5105,7 +5118,7 @@
         <v>21</v>
       </c>
       <c r="D109">
-        <v>6.9056232587172399</v>
+        <v>9.7589239794144103</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="4"/>
@@ -5126,11 +5139,11 @@
       </c>
       <c r="K109">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.0336850410849099</v>
       </c>
       <c r="L109">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -5144,7 +5157,7 @@
         <v>22</v>
       </c>
       <c r="D110">
-        <v>13.5654046184936</v>
+        <v>11.4578106354199</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="4"/>
@@ -5165,11 +5178,11 @@
       </c>
       <c r="K110">
         <f t="shared" si="6"/>
-        <v>6.9056232587172399</v>
+        <v>9.7589239794144103</v>
       </c>
       <c r="L110">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -5183,7 +5196,7 @@
         <v>23</v>
       </c>
       <c r="D111">
-        <v>10.483026159927199</v>
+        <v>13.0759618089226</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="4"/>
@@ -5204,11 +5217,11 @@
       </c>
       <c r="K111">
         <f t="shared" si="6"/>
-        <v>13.5654046184936</v>
+        <v>11.4578106354199</v>
       </c>
       <c r="L111">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -5222,7 +5235,7 @@
         <v>24</v>
       </c>
       <c r="D112">
-        <v>4.60439577767829</v>
+        <v>14.4096725079732</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="4"/>
@@ -5243,11 +5256,11 @@
       </c>
       <c r="K112">
         <f t="shared" si="6"/>
-        <v>10.483026159927199</v>
+        <v>13.0759618089226</v>
       </c>
       <c r="L112">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -5261,7 +5274,7 @@
         <v>25</v>
       </c>
       <c r="D113">
-        <v>5.0249009532853899</v>
+        <v>16.053329267355899</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="4"/>
@@ -5282,11 +5295,11 @@
       </c>
       <c r="K113">
         <f t="shared" si="6"/>
-        <v>4.60439577767829</v>
+        <v>14.4096725079732</v>
       </c>
       <c r="L113">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -5300,7 +5313,7 @@
         <v>26</v>
       </c>
       <c r="D114">
-        <v>11.863411393002</v>
+        <v>18.299394726322099</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="4"/>
@@ -5321,11 +5334,11 @@
       </c>
       <c r="K114">
         <f t="shared" si="6"/>
-        <v>5.0249009532853899</v>
+        <v>16.053329267355899</v>
       </c>
       <c r="L114">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -5339,7 +5352,7 @@
         <v>27</v>
       </c>
       <c r="D115">
-        <v>17.603374285179498</v>
+        <v>20.7045612761043</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="4"/>
@@ -5360,11 +5373,11 @@
       </c>
       <c r="K115">
         <f t="shared" si="6"/>
-        <v>11.863411393002</v>
+        <v>18.299394726322099</v>
       </c>
       <c r="L115">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -5378,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="D116">
-        <v>17.4529896048479</v>
+        <v>24.1754413690905</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="4"/>
@@ -5399,11 +5412,11 @@
       </c>
       <c r="K116">
         <f t="shared" si="6"/>
-        <v>17.603374285179498</v>
+        <v>20.7045612761043</v>
       </c>
       <c r="L116">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -5417,7 +5430,7 @@
         <v>29</v>
       </c>
       <c r="D117">
-        <v>14.8395718430983</v>
+        <v>26.373833345424199</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="4"/>
@@ -5438,11 +5451,11 @@
       </c>
       <c r="K117">
         <f t="shared" si="6"/>
-        <v>17.4529896048479</v>
+        <v>24.1754413690905</v>
       </c>
       <c r="L117">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5456,7 +5469,7 @@
         <v>30</v>
       </c>
       <c r="D118">
-        <v>15.7528709246471</v>
+        <v>29.580872183021199</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="4"/>
@@ -5477,11 +5490,11 @@
       </c>
       <c r="K118">
         <f t="shared" si="6"/>
-        <v>14.8395718430983</v>
+        <v>26.373833345424199</v>
       </c>
       <c r="L118">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5495,7 +5508,7 @@
         <v>31</v>
       </c>
       <c r="D119">
-        <v>20.302830287320798</v>
+        <v>31.807017001812699</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="4"/>
@@ -5516,11 +5529,11 @@
       </c>
       <c r="K119">
         <f t="shared" si="6"/>
-        <v>15.7528709246471</v>
+        <v>29.580872183021199</v>
       </c>
       <c r="L119">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5534,7 +5547,7 @@
         <v>32</v>
       </c>
       <c r="D120">
-        <v>22.744179556320798</v>
+        <v>34.3617410575566</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="4"/>
@@ -5555,11 +5568,11 @@
       </c>
       <c r="K120">
         <f t="shared" si="6"/>
-        <v>20.302830287320798</v>
+        <v>31.807017001812699</v>
       </c>
       <c r="L120">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5573,7 +5586,7 @@
         <v>33</v>
       </c>
       <c r="D121">
-        <v>19.6090218374665</v>
+        <v>37.181404360767203</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="4"/>
@@ -5594,11 +5607,11 @@
       </c>
       <c r="K121">
         <f t="shared" si="6"/>
-        <v>22.744179556320798</v>
+        <v>34.3617410575566</v>
       </c>
       <c r="L121">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5612,7 +5625,7 @@
         <v>34</v>
       </c>
       <c r="D122">
-        <v>14.9932960972655</v>
+        <v>38.127846745050498</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="4"/>
@@ -5633,11 +5646,11 @@
       </c>
       <c r="K122">
         <f t="shared" si="6"/>
-        <v>19.6090218374665</v>
+        <v>37.181404360767203</v>
       </c>
       <c r="L122">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5651,7 +5664,7 @@
         <v>35</v>
       </c>
       <c r="D123">
-        <v>15.9541905680525</v>
+        <v>38.359418342956097</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="4"/>
@@ -5672,11 +5685,11 @@
       </c>
       <c r="K123">
         <f t="shared" si="6"/>
-        <v>14.9932960972655</v>
+        <v>38.127846745050498</v>
       </c>
       <c r="L123">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5690,7 +5703,7 @@
         <v>36</v>
       </c>
       <c r="D124">
-        <v>23.7897546724707</v>
+        <v>39.374521437673998</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="4"/>
@@ -5711,11 +5724,11 @@
       </c>
       <c r="K124">
         <f t="shared" si="6"/>
-        <v>15.9541905680525</v>
+        <v>38.359418342956097</v>
       </c>
       <c r="L124">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -5729,7 +5742,7 @@
         <v>37</v>
       </c>
       <c r="D125">
-        <v>32.130238482837697</v>
+        <v>40.109041036297697</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="4"/>
@@ -5750,11 +5763,11 @@
       </c>
       <c r="K125">
         <f t="shared" si="6"/>
-        <v>23.7897546724707</v>
+        <v>39.374521437673998</v>
       </c>
       <c r="L125">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -5768,7 +5781,7 @@
         <v>38</v>
       </c>
       <c r="D126">
-        <v>34.121246377711898</v>
+        <v>41.077676478529398</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="4"/>
@@ -5789,11 +5802,11 @@
       </c>
       <c r="K126">
         <f t="shared" si="6"/>
-        <v>32.130238482837697</v>
+        <v>40.109041036297697</v>
       </c>
       <c r="L126">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -5807,7 +5820,7 @@
         <v>39</v>
       </c>
       <c r="D127">
-        <v>29.793841547827402</v>
+        <v>42.782921279153399</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="4"/>
@@ -5828,11 +5841,11 @@
       </c>
       <c r="K127">
         <f t="shared" si="6"/>
-        <v>34.121246377711898</v>
+        <v>41.077676478529398</v>
       </c>
       <c r="L127">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -5846,7 +5859,7 @@
         <v>40</v>
       </c>
       <c r="D128">
-        <v>25.047840568600801</v>
+        <v>44.310698452497199</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="4"/>
@@ -5867,11 +5880,11 @@
       </c>
       <c r="K128">
         <f t="shared" si="6"/>
-        <v>29.793841547827402</v>
+        <v>42.782921279153399</v>
       </c>
       <c r="L128">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -5885,7 +5898,7 @@
         <v>41</v>
       </c>
       <c r="D129">
-        <v>24.376514899398899</v>
+        <v>47.404712454001903</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="4"/>
@@ -5906,11 +5919,11 @@
       </c>
       <c r="K129">
         <f t="shared" si="6"/>
-        <v>25.047840568600801</v>
+        <v>44.310698452497199</v>
       </c>
       <c r="L129">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -5924,7 +5937,7 @@
         <v>42</v>
       </c>
       <c r="D130">
-        <v>26.5166836529751</v>
+        <v>48.353182186173001</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="4"/>
@@ -5945,11 +5958,11 @@
       </c>
       <c r="K130">
         <f t="shared" si="6"/>
-        <v>24.376514899398899</v>
+        <v>47.404712454001903</v>
       </c>
       <c r="L130">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -5963,7 +5976,7 @@
         <v>43</v>
       </c>
       <c r="D131">
-        <v>27.449862279885501</v>
+        <v>47.639507873234102</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" ref="E131:E194" si="8">B131&amp;A131&amp;C131</f>
@@ -5984,11 +5997,11 @@
       </c>
       <c r="K131">
         <f t="shared" ref="K131:K194" si="10">_xlfn.XLOOKUP(J131,$E$2:$E$417,$D$2:$D$417)</f>
-        <v>26.5166836529751</v>
+        <v>48.353182186173001</v>
       </c>
       <c r="L131">
         <f t="shared" ref="L131:L194" si="11">ROUND(K131,0)</f>
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -6002,7 +6015,7 @@
         <v>44</v>
       </c>
       <c r="D132">
-        <v>25.7370521001212</v>
+        <v>45.870022757992203</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="8"/>
@@ -6023,11 +6036,11 @@
       </c>
       <c r="K132">
         <f t="shared" si="10"/>
-        <v>27.449862279885501</v>
+        <v>47.639507873234102</v>
       </c>
       <c r="L132">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -6041,7 +6054,7 @@
         <v>45</v>
       </c>
       <c r="D133">
-        <v>23.257997821987299</v>
+        <v>44.235660906353303</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="8"/>
@@ -6062,11 +6075,11 @@
       </c>
       <c r="K133">
         <f t="shared" si="10"/>
-        <v>25.7370521001212</v>
+        <v>45.870022757992203</v>
       </c>
       <c r="L133">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -6080,7 +6093,7 @@
         <v>46</v>
       </c>
       <c r="D134">
-        <v>21.530579762525999</v>
+        <v>41.330410875740803</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="8"/>
@@ -6101,11 +6114,11 @@
       </c>
       <c r="K134">
         <f t="shared" si="10"/>
-        <v>23.257997821987299</v>
+        <v>44.235660906353303</v>
       </c>
       <c r="L134">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -6119,7 +6132,7 @@
         <v>47</v>
       </c>
       <c r="D135">
-        <v>19.5822287850824</v>
+        <v>35.915416196807698</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="8"/>
@@ -6140,11 +6153,11 @@
       </c>
       <c r="K135">
         <f t="shared" si="10"/>
-        <v>21.530579762525999</v>
+        <v>41.330410875740803</v>
       </c>
       <c r="L135">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -6158,7 +6171,7 @@
         <v>48</v>
       </c>
       <c r="D136">
-        <v>16.276966147430301</v>
+        <v>31.390583199445398</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="8"/>
@@ -6179,11 +6192,11 @@
       </c>
       <c r="K136">
         <f t="shared" si="10"/>
-        <v>19.5822287850824</v>
+        <v>35.915416196807698</v>
       </c>
       <c r="L136">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -6197,7 +6210,7 @@
         <v>49</v>
       </c>
       <c r="D137">
-        <v>13.105181925973699</v>
+        <v>28.923991666336399</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="8"/>
@@ -6218,11 +6231,11 @@
       </c>
       <c r="K137">
         <f t="shared" si="10"/>
-        <v>16.276966147430301</v>
+        <v>31.390583199445398</v>
       </c>
       <c r="L137">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -6236,7 +6249,7 @@
         <v>50</v>
       </c>
       <c r="D138">
-        <v>12.7272131298232</v>
+        <v>27.7650517907284</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="8"/>
@@ -6257,11 +6270,11 @@
       </c>
       <c r="K138">
         <f t="shared" si="10"/>
-        <v>13.105181925973699</v>
+        <v>28.923991666336399</v>
       </c>
       <c r="L138">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -6275,7 +6288,7 @@
         <v>51</v>
       </c>
       <c r="D139">
-        <v>14.978997689133299</v>
+        <v>25.106040272811398</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="8"/>
@@ -6296,11 +6309,11 @@
       </c>
       <c r="K139">
         <f t="shared" si="10"/>
-        <v>12.7272131298232</v>
+        <v>27.7650517907284</v>
       </c>
       <c r="L139">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -6314,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>14.0228981875625</v>
+        <v>20.741247519251701</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="8"/>
@@ -6335,11 +6348,11 @@
       </c>
       <c r="K140">
         <f t="shared" si="10"/>
-        <v>14.978997689133299</v>
+        <v>25.106040272811398</v>
       </c>
       <c r="L140">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -6353,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="D141">
-        <v>10.207315770487099</v>
+        <v>20.094387303897701</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="8"/>
@@ -6374,7 +6387,7 @@
       </c>
       <c r="K141">
         <f t="shared" si="10"/>
-        <v>15.837407886501699</v>
+        <v>15.6188192453436</v>
       </c>
       <c r="L141">
         <f t="shared" si="11"/>
@@ -6392,7 +6405,7 @@
         <v>3</v>
       </c>
       <c r="D142">
-        <v>9.0240475525642907</v>
+        <v>18.3625077420316</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="8"/>
@@ -6413,11 +6426,11 @@
       </c>
       <c r="K142">
         <f t="shared" si="10"/>
-        <v>14.0228981875625</v>
+        <v>20.741247519251701</v>
       </c>
       <c r="L142">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -6431,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="D143">
-        <v>11.0789715367791</v>
+        <v>16.799923689645599</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="8"/>
@@ -6452,11 +6465,11 @@
       </c>
       <c r="K143">
         <f t="shared" si="10"/>
-        <v>10.207315770487099</v>
+        <v>20.094387303897701</v>
       </c>
       <c r="L143">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -6470,7 +6483,7 @@
         <v>5</v>
       </c>
       <c r="D144">
-        <v>12.19344623926</v>
+        <v>14.5964911939208</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="8"/>
@@ -6491,11 +6504,11 @@
       </c>
       <c r="K144">
         <f t="shared" si="10"/>
-        <v>9.0240475525642907</v>
+        <v>18.3625077420316</v>
       </c>
       <c r="L144">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -6509,7 +6522,7 @@
         <v>6</v>
       </c>
       <c r="D145">
-        <v>9.0357184844397107</v>
+        <v>13.836096962619701</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="8"/>
@@ -6530,11 +6543,11 @@
       </c>
       <c r="K145">
         <f t="shared" si="10"/>
-        <v>11.0789715367791</v>
+        <v>16.799923689645599</v>
       </c>
       <c r="L145">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -6548,7 +6561,7 @@
         <v>7</v>
       </c>
       <c r="D146">
-        <v>4.2924497077838097</v>
+        <v>12.4429803526947</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="8"/>
@@ -6569,11 +6582,11 @@
       </c>
       <c r="K146">
         <f t="shared" si="10"/>
-        <v>12.19344623926</v>
+        <v>14.5964911939208</v>
       </c>
       <c r="L146">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -6587,7 +6600,7 @@
         <v>8</v>
       </c>
       <c r="D147">
-        <v>3.7331609739849201</v>
+        <v>11.822358721235201</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="8"/>
@@ -6608,11 +6621,11 @@
       </c>
       <c r="K147">
         <f t="shared" si="10"/>
-        <v>9.0357184844397107</v>
+        <v>13.836096962619701</v>
       </c>
       <c r="L147">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -6626,7 +6639,7 @@
         <v>9</v>
       </c>
       <c r="D148">
-        <v>8.0722631847529502</v>
+        <v>10.774649491724499</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="8"/>
@@ -6647,11 +6660,11 @@
       </c>
       <c r="K148">
         <f t="shared" si="10"/>
-        <v>4.2924497077838097</v>
+        <v>12.4429803526947</v>
       </c>
       <c r="L148">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -6665,7 +6678,7 @@
         <v>10</v>
       </c>
       <c r="D149">
-        <v>10.5819522538004</v>
+        <v>10.1804897447923</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="8"/>
@@ -6686,11 +6699,11 @@
       </c>
       <c r="K149">
         <f t="shared" si="10"/>
-        <v>3.7331609739849201</v>
+        <v>11.822358721235201</v>
       </c>
       <c r="L149">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -6704,7 +6717,7 @@
         <v>11</v>
       </c>
       <c r="D150">
-        <v>5.3027549008984298</v>
+        <v>9.0579129125083799</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="8"/>
@@ -6725,11 +6738,11 @@
       </c>
       <c r="K150">
         <f t="shared" si="10"/>
-        <v>8.0722631847529502</v>
+        <v>10.774649491724499</v>
       </c>
       <c r="L150">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -6743,7 +6756,7 @@
         <v>12</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>8.4706365679267108</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="8"/>
@@ -6764,11 +6777,11 @@
       </c>
       <c r="K151">
         <f t="shared" si="10"/>
-        <v>10.5819522538004</v>
+        <v>10.1804897447923</v>
       </c>
       <c r="L151">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -6782,7 +6795,7 @@
         <v>13</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>8.1790357928561406</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="8"/>
@@ -6803,11 +6816,11 @@
       </c>
       <c r="K152">
         <f t="shared" si="10"/>
-        <v>5.3027549008984298</v>
+        <v>9.0579129125083799</v>
       </c>
       <c r="L152">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -6821,7 +6834,7 @@
         <v>14</v>
       </c>
       <c r="D153">
-        <v>13.9657925982173</v>
+        <v>8.3021586114003405</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="8"/>
@@ -6842,11 +6855,11 @@
       </c>
       <c r="K153">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8.4706365679267108</v>
       </c>
       <c r="L153">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -6860,7 +6873,7 @@
         <v>15</v>
       </c>
       <c r="D154">
-        <v>37.501059650719903</v>
+        <v>7.9531381351032602</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="8"/>
@@ -6881,11 +6894,11 @@
       </c>
       <c r="K154">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8.1790357928561406</v>
       </c>
       <c r="L154">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -6899,7 +6912,7 @@
         <v>16</v>
       </c>
       <c r="D155">
-        <v>48.866937046441301</v>
+        <v>7.84849608820765</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="8"/>
@@ -6920,11 +6933,11 @@
       </c>
       <c r="K155">
         <f t="shared" si="10"/>
-        <v>13.9657925982173</v>
+        <v>8.3021586114003405</v>
       </c>
       <c r="L155">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -6938,7 +6951,7 @@
         <v>17</v>
       </c>
       <c r="D156">
-        <v>37.976945840986403</v>
+        <v>8.0830579484136695</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="8"/>
@@ -6959,11 +6972,11 @@
       </c>
       <c r="K156">
         <f t="shared" si="10"/>
-        <v>37.501059650719903</v>
+        <v>7.9531381351032602</v>
       </c>
       <c r="L156">
         <f t="shared" si="11"/>
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -6977,7 +6990,7 @@
         <v>18</v>
       </c>
       <c r="D157">
-        <v>14.117202460642099</v>
+        <v>8.6605300397294496</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="8"/>
@@ -6998,11 +7011,11 @@
       </c>
       <c r="K157">
         <f t="shared" si="10"/>
-        <v>48.866937046441301</v>
+        <v>7.84849608820765</v>
       </c>
       <c r="L157">
         <f t="shared" si="11"/>
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -7016,7 +7029,7 @@
         <v>19</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>9.3057144554937494</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="8"/>
@@ -7037,11 +7050,11 @@
       </c>
       <c r="K158">
         <f t="shared" si="10"/>
-        <v>37.976945840986403</v>
+        <v>8.0830579484136695</v>
       </c>
       <c r="L158">
         <f t="shared" si="11"/>
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -7055,7 +7068,7 @@
         <v>20</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>10.102811768807801</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="8"/>
@@ -7076,11 +7089,11 @@
       </c>
       <c r="K159">
         <f t="shared" si="10"/>
-        <v>14.117202460642099</v>
+        <v>8.6605300397294496</v>
       </c>
       <c r="L159">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -7094,7 +7107,7 @@
         <v>21</v>
       </c>
       <c r="D160">
-        <v>6.7097506820718902</v>
+        <v>10.978598952588801</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="8"/>
@@ -7115,11 +7128,11 @@
       </c>
       <c r="K160">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.3057144554937494</v>
       </c>
       <c r="L160">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -7133,7 +7146,7 @@
         <v>22</v>
       </c>
       <c r="D161">
-        <v>13.1808559018172</v>
+        <v>12.411101223728</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="8"/>
@@ -7154,11 +7167,11 @@
       </c>
       <c r="K161">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10.102811768807801</v>
       </c>
       <c r="L161">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -7172,7 +7185,7 @@
         <v>23</v>
       </c>
       <c r="D162">
-        <v>10.186078468199399</v>
+        <v>13.8089874640128</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="8"/>
@@ -7193,11 +7206,11 @@
       </c>
       <c r="K162">
         <f t="shared" si="10"/>
-        <v>6.7097506820718902</v>
+        <v>10.978598952588801</v>
       </c>
       <c r="L162">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -7211,7 +7224,7 @@
         <v>24</v>
       </c>
       <c r="D163">
-        <v>4.47402825579774</v>
+        <v>15.843757097516299</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="8"/>
@@ -7232,11 +7245,11 @@
       </c>
       <c r="K163">
         <f t="shared" si="10"/>
-        <v>13.1808559018172</v>
+        <v>12.411101223728</v>
       </c>
       <c r="L163">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -7250,7 +7263,7 @@
         <v>25</v>
       </c>
       <c r="D164">
-        <v>4.8826725651961098</v>
+        <v>18.379858875784102</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="8"/>
@@ -7271,11 +7284,11 @@
       </c>
       <c r="K164">
         <f t="shared" si="10"/>
-        <v>10.186078468199399</v>
+        <v>13.8089874640128</v>
       </c>
       <c r="L164">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -7289,7 +7302,7 @@
         <v>26</v>
       </c>
       <c r="D165">
-        <v>11.527804287761599</v>
+        <v>19.431502847436501</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="8"/>
@@ -7310,11 +7323,11 @@
       </c>
       <c r="K165">
         <f t="shared" si="10"/>
-        <v>4.47402825579774</v>
+        <v>15.843757097516299</v>
       </c>
       <c r="L165">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -7328,7 +7341,7 @@
         <v>27</v>
       </c>
       <c r="D166">
-        <v>17.105843325422001</v>
+        <v>21.558280795848798</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="8"/>
@@ -7349,11 +7362,11 @@
       </c>
       <c r="K166">
         <f t="shared" si="10"/>
-        <v>4.8826725651961098</v>
+        <v>18.379858875784102</v>
       </c>
       <c r="L166">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -7367,7 +7380,7 @@
         <v>28</v>
       </c>
       <c r="D167">
-        <v>16.960248684714301</v>
+        <v>23.088527200136799</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="8"/>
@@ -7388,11 +7401,11 @@
       </c>
       <c r="K167">
         <f t="shared" si="10"/>
-        <v>11.527804287761599</v>
+        <v>19.431502847436501</v>
       </c>
       <c r="L167">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -7406,7 +7419,7 @@
         <v>29</v>
       </c>
       <c r="D168">
-        <v>14.4210359258868</v>
+        <v>24.422424209119399</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="8"/>
@@ -7427,11 +7440,11 @@
       </c>
       <c r="K168">
         <f t="shared" si="10"/>
-        <v>17.105843325422001</v>
+        <v>21.558280795848798</v>
       </c>
       <c r="L168">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -7445,7 +7458,7 @@
         <v>30</v>
       </c>
       <c r="D169">
-        <v>15.3090028786464</v>
+        <v>28.490809319168001</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="8"/>
@@ -7466,11 +7479,11 @@
       </c>
       <c r="K169">
         <f t="shared" si="10"/>
-        <v>16.960248684714301</v>
+        <v>23.088527200136799</v>
       </c>
       <c r="L169">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -7484,7 +7497,7 @@
         <v>31</v>
       </c>
       <c r="D170">
-        <v>19.731406409744501</v>
+        <v>32.143252153087303</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="8"/>
@@ -7505,11 +7518,11 @@
       </c>
       <c r="K170">
         <f t="shared" si="10"/>
-        <v>14.4210359258868</v>
+        <v>24.422424209119399</v>
       </c>
       <c r="L170">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -7523,7 +7536,7 @@
         <v>32</v>
       </c>
       <c r="D171">
-        <v>22.104903451909099</v>
+        <v>32.775459836804004</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="8"/>
@@ -7544,11 +7557,11 @@
       </c>
       <c r="K171">
         <f t="shared" si="10"/>
-        <v>15.3090028786464</v>
+        <v>28.490809319168001</v>
       </c>
       <c r="L171">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -7562,7 +7575,7 @@
         <v>33</v>
       </c>
       <c r="D172">
-        <v>19.058594041343799</v>
+        <v>33.757910684349902</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="8"/>
@@ -7583,11 +7596,11 @@
       </c>
       <c r="K172">
         <f t="shared" si="10"/>
-        <v>19.731406409744501</v>
+        <v>32.143252153087303</v>
       </c>
       <c r="L172">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -7601,7 +7614,7 @@
         <v>34</v>
       </c>
       <c r="D173">
-        <v>14.5728854920744</v>
+        <v>35.809150696116397</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="8"/>
@@ -7622,11 +7635,11 @@
       </c>
       <c r="K173">
         <f t="shared" si="10"/>
-        <v>22.104903451909099</v>
+        <v>32.775459836804004</v>
       </c>
       <c r="L173">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -7640,7 +7653,7 @@
         <v>35</v>
       </c>
       <c r="D174">
-        <v>15.5072696646602</v>
+        <v>37.296661610064803</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="8"/>
@@ -7661,11 +7674,11 @@
       </c>
       <c r="K174">
         <f t="shared" si="10"/>
-        <v>19.058594041343799</v>
+        <v>33.757910684349902</v>
       </c>
       <c r="L174">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -7679,7 +7692,7 @@
         <v>36</v>
       </c>
       <c r="D175">
-        <v>23.124166676359799</v>
+        <v>37.3814907840544</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="8"/>
@@ -7700,11 +7713,11 @@
       </c>
       <c r="K175">
         <f t="shared" si="10"/>
-        <v>14.5728854920744</v>
+        <v>35.809150696116397</v>
       </c>
       <c r="L175">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -7718,7 +7731,7 @@
         <v>37</v>
       </c>
       <c r="D176">
-        <v>31.232865696292698</v>
+        <v>35.874172994902203</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="8"/>
@@ -7739,11 +7752,11 @@
       </c>
       <c r="K176">
         <f t="shared" si="10"/>
-        <v>15.5072696646602</v>
+        <v>37.296661610064803</v>
       </c>
       <c r="L176">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -7757,7 +7770,7 @@
         <v>38</v>
       </c>
       <c r="D177">
-        <v>33.170229826799101</v>
+        <v>33.209187751397401</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="8"/>
@@ -7778,11 +7791,11 @@
       </c>
       <c r="K177">
         <f t="shared" si="10"/>
-        <v>23.124166676359799</v>
+        <v>37.3814907840544</v>
       </c>
       <c r="L177">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -7796,7 +7809,7 @@
         <v>39</v>
       </c>
       <c r="D178">
-        <v>28.965086214797299</v>
+        <v>35.424551058714002</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="8"/>
@@ -7817,11 +7830,11 @@
       </c>
       <c r="K178">
         <f t="shared" si="10"/>
-        <v>31.232865696292698</v>
+        <v>35.874172994902203</v>
       </c>
       <c r="L178">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -7835,7 +7848,7 @@
         <v>40</v>
       </c>
       <c r="D179">
-        <v>24.352289627356999</v>
+        <v>36.819723583999902</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="8"/>
@@ -7856,7 +7869,7 @@
       </c>
       <c r="K179">
         <f t="shared" si="10"/>
-        <v>33.170229826799101</v>
+        <v>33.209187751397401</v>
       </c>
       <c r="L179">
         <f t="shared" si="11"/>
@@ -7874,7 +7887,7 @@
         <v>41</v>
       </c>
       <c r="D180">
-        <v>23.7006470865526</v>
+        <v>38.576403101529699</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="8"/>
@@ -7895,11 +7908,11 @@
       </c>
       <c r="K180">
         <f t="shared" si="10"/>
-        <v>28.965086214797299</v>
+        <v>35.424551058714002</v>
       </c>
       <c r="L180">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -7913,7 +7926,7 @@
         <v>42</v>
       </c>
       <c r="D181">
-        <v>25.7826375107106</v>
+        <v>41.357754579912097</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="8"/>
@@ -7934,11 +7947,11 @@
       </c>
       <c r="K181">
         <f t="shared" si="10"/>
-        <v>24.352289627356999</v>
+        <v>36.819723583999902</v>
       </c>
       <c r="L181">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -7952,7 +7965,7 @@
         <v>43</v>
       </c>
       <c r="D182">
-        <v>26.6912536654199</v>
+        <v>40.7050390437457</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="8"/>
@@ -7973,11 +7986,11 @@
       </c>
       <c r="K182">
         <f t="shared" si="10"/>
-        <v>23.7006470865526</v>
+        <v>38.576403101529699</v>
       </c>
       <c r="L182">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -7991,7 +8004,7 @@
         <v>44</v>
       </c>
       <c r="D183">
-        <v>25.0269498185298</v>
+        <v>42.747722603403503</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="8"/>
@@ -8012,11 +8025,11 @@
       </c>
       <c r="K183">
         <f t="shared" si="10"/>
-        <v>25.7826375107106</v>
+        <v>41.357754579912097</v>
       </c>
       <c r="L183">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -8030,7 +8043,7 @@
         <v>45</v>
       </c>
       <c r="D184">
-        <v>22.617268591791799</v>
+        <v>43.1191264878357</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="8"/>
@@ -8051,11 +8064,11 @@
       </c>
       <c r="K184">
         <f t="shared" si="10"/>
-        <v>26.6912536654199</v>
+        <v>40.7050390437457</v>
       </c>
       <c r="L184">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -8069,7 +8082,7 @@
         <v>46</v>
       </c>
       <c r="D185">
-        <v>20.938263147159802</v>
+        <v>39.135085219487003</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="8"/>
@@ -8090,11 +8103,11 @@
       </c>
       <c r="K185">
         <f t="shared" si="10"/>
-        <v>25.0269498185298</v>
+        <v>42.747722603403503</v>
       </c>
       <c r="L185">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -8108,7 +8121,7 @@
         <v>47</v>
       </c>
       <c r="D186">
-        <v>19.0441968652739</v>
+        <v>36.347885880443897</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="8"/>
@@ -8129,11 +8142,11 @@
       </c>
       <c r="K186">
         <f t="shared" si="10"/>
-        <v>22.617268591791799</v>
+        <v>43.1191264878357</v>
       </c>
       <c r="L186">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -8147,7 +8160,7 @@
         <v>48</v>
       </c>
       <c r="D187">
-        <v>15.830242656251301</v>
+        <v>30.737481855343301</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="8"/>
@@ -8168,11 +8181,11 @@
       </c>
       <c r="K187">
         <f t="shared" si="10"/>
-        <v>20.938263147159802</v>
+        <v>39.135085219487003</v>
       </c>
       <c r="L187">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -8186,7 +8199,7 @@
         <v>49</v>
       </c>
       <c r="D188">
-        <v>12.7458334715338</v>
+        <v>25.009216433999399</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="8"/>
@@ -8207,11 +8220,11 @@
       </c>
       <c r="K188">
         <f t="shared" si="10"/>
-        <v>19.0441968652739</v>
+        <v>36.347885880443897</v>
       </c>
       <c r="L188">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -8225,7 +8238,7 @@
         <v>50</v>
       </c>
       <c r="D189">
-        <v>12.3785081153982</v>
+        <v>23.5204138190797</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="8"/>
@@ -8246,11 +8259,11 @@
       </c>
       <c r="K189">
         <f t="shared" si="10"/>
-        <v>15.830242656251301</v>
+        <v>30.737481855343301</v>
       </c>
       <c r="L189">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -8264,7 +8277,7 @@
         <v>51</v>
       </c>
       <c r="D190">
-        <v>14.568951478453499</v>
+        <v>18.530662009971699</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="8"/>
@@ -8285,11 +8298,11 @@
       </c>
       <c r="K190">
         <f t="shared" si="10"/>
-        <v>12.7458334715338</v>
+        <v>25.009216433999399</v>
       </c>
       <c r="L190">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -8303,7 +8316,7 @@
         <v>52</v>
       </c>
       <c r="D191">
-        <v>15.837407886501699</v>
+        <v>15.6188192453436</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="8"/>
@@ -8324,11 +8337,11 @@
       </c>
       <c r="K191">
         <f t="shared" si="10"/>
-        <v>12.3785081153982</v>
+        <v>23.5204138190797</v>
       </c>
       <c r="L191">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -8342,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>13.639751953785799</v>
+        <v>14.4041300066219</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="8"/>
@@ -8363,11 +8376,11 @@
       </c>
       <c r="K192">
         <f t="shared" si="10"/>
-        <v>14.568951478453499</v>
+        <v>18.530662009971699</v>
       </c>
       <c r="L192">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -8381,7 +8394,7 @@
         <v>2</v>
       </c>
       <c r="D193">
-        <v>9.9286285242342203</v>
+        <v>14.378152482537301</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="8"/>
@@ -8402,11 +8415,11 @@
       </c>
       <c r="K193">
         <f t="shared" si="10"/>
-        <v>15.425407730071999</v>
+        <v>23.7969071193525</v>
       </c>
       <c r="L193">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -8420,7 +8433,7 @@
         <v>3</v>
       </c>
       <c r="D194">
-        <v>8.7778135269036195</v>
+        <v>13.4457842421112</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="8"/>
@@ -8441,7 +8454,7 @@
       </c>
       <c r="K194">
         <f t="shared" si="10"/>
-        <v>13.639751953785799</v>
+        <v>14.4041300066219</v>
       </c>
       <c r="L194">
         <f t="shared" si="11"/>
@@ -8459,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="D195">
-        <v>10.776857553457299</v>
+        <v>12.3189780871986</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" ref="E195:E258" si="12">B195&amp;A195&amp;C195</f>
@@ -8480,11 +8493,11 @@
       </c>
       <c r="K195">
         <f t="shared" ref="K195:K258" si="14">_xlfn.XLOOKUP(J195,$E$2:$E$417,$D$2:$D$417)</f>
-        <v>9.9286285242342203</v>
+        <v>14.378152482537301</v>
       </c>
       <c r="L195">
         <f t="shared" ref="L195:L258" si="15">ROUND(K195,0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -8498,7 +8511,7 @@
         <v>5</v>
       </c>
       <c r="D196">
-        <v>11.8611786704568</v>
+        <v>11.2159003971868</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="12"/>
@@ -8519,11 +8532,11 @@
       </c>
       <c r="K196">
         <f t="shared" si="14"/>
-        <v>8.7778135269036195</v>
+        <v>13.4457842421112</v>
       </c>
       <c r="L196">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -8537,7 +8550,7 @@
         <v>6</v>
       </c>
       <c r="D197">
-        <v>8.7896578800646203</v>
+        <v>10.5867331907127</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="12"/>
@@ -8558,11 +8571,11 @@
       </c>
       <c r="K197">
         <f t="shared" si="14"/>
-        <v>10.776857553457299</v>
+        <v>12.3189780871986</v>
       </c>
       <c r="L197">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -8576,7 +8589,7 @@
         <v>7</v>
       </c>
       <c r="D198">
-        <v>4.1756015625724103</v>
+        <v>10.617009897192601</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="12"/>
@@ -8597,11 +8610,11 @@
       </c>
       <c r="K198">
         <f t="shared" si="14"/>
-        <v>11.8611786704568</v>
+        <v>11.2159003971868</v>
       </c>
       <c r="L198">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -8615,7 +8628,7 @@
         <v>8</v>
       </c>
       <c r="D199">
-        <v>3.6315623086265898</v>
+        <v>10.229399923965801</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="12"/>
@@ -8636,11 +8649,11 @@
       </c>
       <c r="K199">
         <f t="shared" si="14"/>
-        <v>8.7896578800646203</v>
+        <v>10.5867331907127</v>
       </c>
       <c r="L199">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -8654,7 +8667,7 @@
         <v>9</v>
       </c>
       <c r="D200">
-        <v>7.85266797156509</v>
+        <v>8.7737422560531098</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="12"/>
@@ -8675,11 +8688,11 @@
       </c>
       <c r="K200">
         <f t="shared" si="14"/>
-        <v>4.1756015625724103</v>
+        <v>10.617009897192601</v>
       </c>
       <c r="L200">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -8693,7 +8706,7 @@
         <v>10</v>
       </c>
       <c r="D201">
-        <v>10.2942444998334</v>
+        <v>8.1989201522894994</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="12"/>
@@ -8714,11 +8727,11 @@
       </c>
       <c r="K201">
         <f t="shared" si="14"/>
-        <v>3.6315623086265898</v>
+        <v>10.229399923965801</v>
       </c>
       <c r="L201">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -8732,7 +8745,7 @@
         <v>11</v>
       </c>
       <c r="D202">
-        <v>5.1586510021152199</v>
+        <v>7.9299114375306798</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" si="12"/>
@@ -8753,11 +8766,11 @@
       </c>
       <c r="K202">
         <f t="shared" si="14"/>
-        <v>7.85266797156509</v>
+        <v>8.7737422560531098</v>
       </c>
       <c r="L202">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -8771,7 +8784,7 @@
         <v>12</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>7.5029561622408503</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="12"/>
@@ -8792,11 +8805,11 @@
       </c>
       <c r="K203">
         <f t="shared" si="14"/>
-        <v>10.2942444998334</v>
+        <v>8.1989201522894994</v>
       </c>
       <c r="L203">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -8810,7 +8823,7 @@
         <v>13</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>7.0888555292364996</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="12"/>
@@ -8831,11 +8844,11 @@
       </c>
       <c r="K204">
         <f t="shared" si="14"/>
-        <v>5.1586510021152199</v>
+        <v>7.9299114375306798</v>
       </c>
       <c r="L204">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -8849,7 +8862,7 @@
         <v>14</v>
       </c>
       <c r="D205">
-        <v>13.586127294373</v>
+        <v>6.2754235358072004</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="12"/>
@@ -8870,11 +8883,11 @@
       </c>
       <c r="K205">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7.5029561622408503</v>
       </c>
       <c r="L205">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -8888,7 +8901,7 @@
         <v>15</v>
       </c>
       <c r="D206">
-        <v>36.483653406546999</v>
+        <v>6.1011939729170699</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="12"/>
@@ -8909,11 +8922,11 @@
       </c>
       <c r="K206">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7.0888555292364996</v>
       </c>
       <c r="L206">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -8927,7 +8940,7 @@
         <v>16</v>
       </c>
       <c r="D207">
-        <v>47.544924760964903</v>
+        <v>6.5909867131035504</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="12"/>
@@ -8948,11 +8961,11 @@
       </c>
       <c r="K207">
         <f t="shared" si="14"/>
-        <v>13.586127294373</v>
+        <v>6.2754235358072004</v>
       </c>
       <c r="L207">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -8966,7 +8979,7 @@
         <v>17</v>
       </c>
       <c r="D208">
-        <v>36.952384100455603</v>
+        <v>6.8452119409061796</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="12"/>
@@ -8987,11 +9000,11 @@
       </c>
       <c r="K208">
         <f t="shared" si="14"/>
-        <v>36.483653406546999</v>
+        <v>6.1011939729170699</v>
       </c>
       <c r="L208">
         <f t="shared" si="15"/>
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -9005,7 +9018,7 @@
         <v>18</v>
       </c>
       <c r="D209">
-        <v>13.7369721929135</v>
+        <v>7.10360838396487</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="12"/>
@@ -9026,11 +9039,11 @@
       </c>
       <c r="K209">
         <f t="shared" si="14"/>
-        <v>47.544924760964903</v>
+        <v>6.5909867131035504</v>
       </c>
       <c r="L209">
         <f t="shared" si="15"/>
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -9044,7 +9057,7 @@
         <v>19</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>7.7318755791499498</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="12"/>
@@ -9065,11 +9078,11 @@
       </c>
       <c r="K210">
         <f t="shared" si="14"/>
-        <v>36.952384100455603</v>
+        <v>6.8452119409061796</v>
       </c>
       <c r="L210">
         <f t="shared" si="15"/>
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -9083,7 +9096,7 @@
         <v>20</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>8.2776564782983506</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="12"/>
@@ -9104,11 +9117,11 @@
       </c>
       <c r="K211">
         <f t="shared" si="14"/>
-        <v>13.7369721929135</v>
+        <v>7.10360838396487</v>
       </c>
       <c r="L211">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -9122,7 +9135,7 @@
         <v>21</v>
       </c>
       <c r="D212">
-        <v>6.5290466290243696</v>
+        <v>8.9054426865705505</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="12"/>
@@ -9143,11 +9156,11 @@
       </c>
       <c r="K212">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7.7318755791499498</v>
       </c>
       <c r="L212">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -9161,7 +9174,7 @@
         <v>22</v>
       </c>
       <c r="D213">
-        <v>12.8260704077329</v>
+        <v>9.5068824328377701</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="12"/>
@@ -9182,11 +9195,11 @@
       </c>
       <c r="K213">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8.2776564782983506</v>
       </c>
       <c r="L213">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -9200,7 +9213,7 @@
         <v>23</v>
       </c>
       <c r="D214">
-        <v>9.9120974929392105</v>
+        <v>9.7788083193432396</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="12"/>
@@ -9221,11 +9234,11 @@
       </c>
       <c r="K214">
         <f t="shared" si="14"/>
-        <v>6.5290466290243696</v>
+        <v>8.9054426865705505</v>
       </c>
       <c r="L214">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -9239,7 +9252,7 @@
         <v>24</v>
       </c>
       <c r="D215">
-        <v>4.3537393426595301</v>
+        <v>11.135025372415001</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="12"/>
@@ -9260,11 +9273,11 @@
       </c>
       <c r="K215">
         <f t="shared" si="14"/>
-        <v>12.8260704077329</v>
+        <v>9.5068824328377701</v>
       </c>
       <c r="L215">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -9278,7 +9291,7 @@
         <v>25</v>
       </c>
       <c r="D216">
-        <v>4.7514364007874903</v>
+        <v>14.445226728304201</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="12"/>
@@ -9299,7 +9312,7 @@
       </c>
       <c r="K216">
         <f t="shared" si="14"/>
-        <v>9.9120974929392105</v>
+        <v>9.7788083193432396</v>
       </c>
       <c r="L216">
         <f t="shared" si="15"/>
@@ -9317,7 +9330,7 @@
         <v>26</v>
       </c>
       <c r="D217">
-        <v>11.2181213634976</v>
+        <v>16.300312818355199</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="12"/>
@@ -9338,11 +9351,11 @@
       </c>
       <c r="K217">
         <f t="shared" si="14"/>
-        <v>4.3537393426595301</v>
+        <v>11.135025372415001</v>
       </c>
       <c r="L217">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -9356,7 +9369,7 @@
         <v>27</v>
       </c>
       <c r="D218">
-        <v>16.646710917877499</v>
+        <v>18.443435848308901</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="12"/>
@@ -9377,11 +9390,11 @@
       </c>
       <c r="K218">
         <f t="shared" si="14"/>
-        <v>4.7514364007874903</v>
+        <v>14.445226728304201</v>
       </c>
       <c r="L218">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -9395,7 +9408,7 @@
         <v>28</v>
       </c>
       <c r="D219">
-        <v>16.505496972145899</v>
+        <v>21.279322625856501</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="12"/>
@@ -9416,11 +9429,11 @@
       </c>
       <c r="K219">
         <f t="shared" si="14"/>
-        <v>11.2181213634976</v>
+        <v>16.300312818355199</v>
       </c>
       <c r="L219">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -9434,7 +9447,7 @@
         <v>29</v>
       </c>
       <c r="D220">
-        <v>14.034737201538499</v>
+        <v>25.1724154845041</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="12"/>
@@ -9455,11 +9468,11 @@
       </c>
       <c r="K220">
         <f t="shared" si="14"/>
-        <v>16.646710917877499</v>
+        <v>18.443435848308901</v>
       </c>
       <c r="L220">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -9473,7 +9486,7 @@
         <v>30</v>
       </c>
       <c r="D221">
-        <v>14.899291930130801</v>
+        <v>28.911489409836001</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="12"/>
@@ -9494,11 +9507,11 @@
       </c>
       <c r="K221">
         <f t="shared" si="14"/>
-        <v>16.505496972145899</v>
+        <v>21.279322625856501</v>
       </c>
       <c r="L221">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -9512,7 +9525,7 @@
         <v>31</v>
       </c>
       <c r="D222">
-        <v>19.203907931390798</v>
+        <v>33.033549048387499</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="12"/>
@@ -9533,11 +9546,11 @@
       </c>
       <c r="K222">
         <f t="shared" si="14"/>
-        <v>14.034737201538499</v>
+        <v>25.1724154845041</v>
       </c>
       <c r="L222">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -9551,7 +9564,7 @@
         <v>32</v>
       </c>
       <c r="D223">
-        <v>21.514705666166201</v>
+        <v>35.456830541196297</v>
       </c>
       <c r="E223" t="str">
         <f t="shared" si="12"/>
@@ -9572,11 +9585,11 @@
       </c>
       <c r="K223">
         <f t="shared" si="14"/>
-        <v>14.899291930130801</v>
+        <v>28.911489409836001</v>
       </c>
       <c r="L223">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -9590,7 +9603,7 @@
         <v>33</v>
       </c>
       <c r="D224">
-        <v>18.550370281423898</v>
+        <v>38.173484390268797</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="12"/>
@@ -9611,11 +9624,11 @@
       </c>
       <c r="K224">
         <f t="shared" si="14"/>
-        <v>19.203907931390798</v>
+        <v>33.033549048387499</v>
       </c>
       <c r="L224">
         <f t="shared" si="15"/>
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -9629,7 +9642,7 @@
         <v>34</v>
       </c>
       <c r="D225">
-        <v>14.1846767641909</v>
+        <v>41.684097615696302</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="12"/>
@@ -9650,11 +9663,11 @@
       </c>
       <c r="K225">
         <f t="shared" si="14"/>
-        <v>21.514705666166201</v>
+        <v>35.456830541196297</v>
       </c>
       <c r="L225">
         <f t="shared" si="15"/>
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -9668,7 +9681,7 @@
         <v>35</v>
       </c>
       <c r="D226">
-        <v>15.0945496522617</v>
+        <v>49.651949620748603</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="12"/>
@@ -9689,11 +9702,11 @@
       </c>
       <c r="K226">
         <f t="shared" si="14"/>
-        <v>18.550370281423898</v>
+        <v>38.173484390268797</v>
       </c>
       <c r="L226">
         <f t="shared" si="15"/>
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -9707,7 +9720,7 @@
         <v>36</v>
       </c>
       <c r="D227">
-        <v>22.509452769445399</v>
+        <v>52.198143679805099</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="12"/>
@@ -9728,11 +9741,11 @@
       </c>
       <c r="K227">
         <f t="shared" si="14"/>
-        <v>14.1846767641909</v>
+        <v>41.684097615696302</v>
       </c>
       <c r="L227">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -9746,7 +9759,7 @@
         <v>37</v>
       </c>
       <c r="D228">
-        <v>30.4039695693209</v>
+        <v>54.327574562696803</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="12"/>
@@ -9767,11 +9780,11 @@
       </c>
       <c r="K228">
         <f t="shared" si="14"/>
-        <v>15.0945496522617</v>
+        <v>49.651949620748603</v>
       </c>
       <c r="L228">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -9785,7 +9798,7 @@
         <v>38</v>
       </c>
       <c r="D229">
-        <v>32.291640753290203</v>
+        <v>58.293712637507099</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="12"/>
@@ -9806,11 +9819,11 @@
       </c>
       <c r="K229">
         <f t="shared" si="14"/>
-        <v>22.509452769445399</v>
+        <v>52.198143679805099</v>
       </c>
       <c r="L229">
         <f t="shared" si="15"/>
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -9824,7 +9837,7 @@
         <v>39</v>
       </c>
       <c r="D230">
-        <v>28.199327603368101</v>
+        <v>59.141232457082197</v>
       </c>
       <c r="E230" t="str">
         <f t="shared" si="12"/>
@@ -9845,11 +9858,11 @@
       </c>
       <c r="K230">
         <f t="shared" si="14"/>
-        <v>30.4039695693209</v>
+        <v>54.327574562696803</v>
       </c>
       <c r="L230">
         <f t="shared" si="15"/>
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -9863,7 +9876,7 @@
         <v>40</v>
       </c>
       <c r="D231">
-        <v>23.709524050966099</v>
+        <v>60.755729007391899</v>
       </c>
       <c r="E231" t="str">
         <f t="shared" si="12"/>
@@ -9884,11 +9897,11 @@
       </c>
       <c r="K231">
         <f t="shared" si="14"/>
-        <v>32.291640753290203</v>
+        <v>58.293712637507099</v>
       </c>
       <c r="L231">
         <f t="shared" si="15"/>
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -9902,7 +9915,7 @@
         <v>41</v>
       </c>
       <c r="D232">
-        <v>23.075995612241901</v>
+        <v>63.289976550137098</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="12"/>
@@ -9923,11 +9936,11 @@
       </c>
       <c r="K232">
         <f t="shared" si="14"/>
-        <v>28.199327603368101</v>
+        <v>59.141232457082197</v>
       </c>
       <c r="L232">
         <f t="shared" si="15"/>
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -9941,7 +9954,7 @@
         <v>42</v>
       </c>
       <c r="D233">
-        <v>25.104132598477001</v>
+        <v>59.188229492595497</v>
       </c>
       <c r="E233" t="str">
         <f t="shared" si="12"/>
@@ -9962,11 +9975,11 @@
       </c>
       <c r="K233">
         <f t="shared" si="14"/>
-        <v>23.709524050966099</v>
+        <v>60.755729007391899</v>
       </c>
       <c r="L233">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -9980,7 +9993,7 @@
         <v>43</v>
       </c>
       <c r="D234">
-        <v>25.989953256947</v>
+        <v>58.758633227541999</v>
       </c>
       <c r="E234" t="str">
         <f t="shared" si="12"/>
@@ -10001,11 +10014,11 @@
       </c>
       <c r="K234">
         <f t="shared" si="14"/>
-        <v>23.075995612241901</v>
+        <v>63.289976550137098</v>
       </c>
       <c r="L234">
         <f t="shared" si="15"/>
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -10019,7 +10032,7 @@
         <v>44</v>
       </c>
       <c r="D235">
-        <v>24.3704070995881</v>
+        <v>57.833097778504602</v>
       </c>
       <c r="E235" t="str">
         <f t="shared" si="12"/>
@@ -10040,11 +10053,11 @@
       </c>
       <c r="K235">
         <f t="shared" si="14"/>
-        <v>25.104132598477001</v>
+        <v>59.188229492595497</v>
       </c>
       <c r="L235">
         <f t="shared" si="15"/>
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -10058,7 +10071,7 @@
         <v>45</v>
       </c>
       <c r="D236">
-        <v>22.0247964351292</v>
+        <v>52.342467883157397</v>
       </c>
       <c r="E236" t="str">
         <f t="shared" si="12"/>
@@ -10079,11 +10092,11 @@
       </c>
       <c r="K236">
         <f t="shared" si="14"/>
-        <v>25.989953256947</v>
+        <v>58.758633227541999</v>
       </c>
       <c r="L236">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -10097,7 +10110,7 @@
         <v>46</v>
       </c>
       <c r="D237">
-        <v>20.3904981766172</v>
+        <v>48.863236219127998</v>
       </c>
       <c r="E237" t="str">
         <f t="shared" si="12"/>
@@ -10118,11 +10131,11 @@
       </c>
       <c r="K237">
         <f t="shared" si="14"/>
-        <v>24.3704070995881</v>
+        <v>57.833097778504602</v>
       </c>
       <c r="L237">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -10136,7 +10149,7 @@
         <v>47</v>
       </c>
       <c r="D238">
-        <v>18.546584440795399</v>
+        <v>44.318289350706898</v>
       </c>
       <c r="E238" t="str">
         <f t="shared" si="12"/>
@@ -10157,11 +10170,11 @@
       </c>
       <c r="K238">
         <f t="shared" si="14"/>
-        <v>22.0247964351292</v>
+        <v>52.342467883157397</v>
       </c>
       <c r="L238">
         <f t="shared" si="15"/>
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -10175,7 +10188,7 @@
         <v>48</v>
       </c>
       <c r="D239">
-        <v>15.417043712019201</v>
+        <v>39.070376488472803</v>
       </c>
       <c r="E239" t="str">
         <f t="shared" si="12"/>
@@ -10196,11 +10209,11 @@
       </c>
       <c r="K239">
         <f t="shared" si="14"/>
-        <v>20.3904981766172</v>
+        <v>48.863236219127998</v>
       </c>
       <c r="L239">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -10214,7 +10227,7 @@
         <v>49</v>
       </c>
       <c r="D240">
-        <v>12.4134292123926</v>
+        <v>34.288633746576402</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="12"/>
@@ -10235,11 +10248,11 @@
       </c>
       <c r="K240">
         <f t="shared" si="14"/>
-        <v>18.546584440795399</v>
+        <v>44.318289350706898</v>
       </c>
       <c r="L240">
         <f t="shared" si="15"/>
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -10253,7 +10266,7 @@
         <v>50</v>
       </c>
       <c r="D241">
-        <v>12.0559292552934</v>
+        <v>29.705849110194301</v>
       </c>
       <c r="E241" t="str">
         <f t="shared" si="12"/>
@@ -10274,11 +10287,11 @@
       </c>
       <c r="K241">
         <f t="shared" si="14"/>
-        <v>15.417043712019201</v>
+        <v>39.070376488472803</v>
       </c>
       <c r="L241">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -10292,7 +10305,7 @@
         <v>51</v>
       </c>
       <c r="D242">
-        <v>14.1896019857304</v>
+        <v>26.073417376126599</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="12"/>
@@ -10313,11 +10326,11 @@
       </c>
       <c r="K242">
         <f t="shared" si="14"/>
-        <v>12.4134292123926</v>
+        <v>34.288633746576402</v>
       </c>
       <c r="L242">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -10331,7 +10344,7 @@
         <v>52</v>
       </c>
       <c r="D243">
-        <v>15.425407730071999</v>
+        <v>23.7969071193525</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="12"/>
@@ -10352,11 +10365,11 @@
       </c>
       <c r="K243">
         <f t="shared" si="14"/>
-        <v>12.0559292552934</v>
+        <v>29.705849110194301</v>
       </c>
       <c r="L243">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -10370,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>13.2852368213207</v>
+        <v>21.941621677873702</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="12"/>
@@ -10391,11 +10404,11 @@
       </c>
       <c r="K244">
         <f t="shared" si="14"/>
-        <v>14.1896019857304</v>
+        <v>26.073417376126599</v>
       </c>
       <c r="L244">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -10409,7 +10422,7 @@
         <v>2</v>
       </c>
       <c r="D245">
-        <v>9.6707518580733396</v>
+        <v>21.443679165951501</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="12"/>
@@ -10430,11 +10443,11 @@
       </c>
       <c r="K245">
         <f t="shared" si="14"/>
-        <v>13.2852368213207</v>
+        <v>21.941621677873702</v>
       </c>
       <c r="L245">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -10448,7 +10461,7 @@
         <v>3</v>
       </c>
       <c r="D246">
-        <v>8.54995621505077</v>
+        <v>19.557784177750101</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="12"/>
@@ -10469,11 +10482,11 @@
       </c>
       <c r="K246">
         <f t="shared" si="14"/>
-        <v>9.6707518580733396</v>
+        <v>21.443679165951501</v>
       </c>
       <c r="L246">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -10487,7 +10500,7 @@
         <v>4</v>
       </c>
       <c r="D247">
-        <v>10.4972769989835</v>
+        <v>17.8798429723584</v>
       </c>
       <c r="E247" t="str">
         <f t="shared" si="12"/>
@@ -10508,11 +10521,11 @@
       </c>
       <c r="K247">
         <f t="shared" si="14"/>
-        <v>8.54995621505077</v>
+        <v>19.557784177750101</v>
       </c>
       <c r="L247">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -10526,7 +10539,7 @@
         <v>5</v>
       </c>
       <c r="D248">
-        <v>11.553676710325799</v>
+        <v>16.939058627644599</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="12"/>
@@ -10547,11 +10560,11 @@
       </c>
       <c r="K248">
         <f t="shared" si="14"/>
-        <v>10.4972769989835</v>
+        <v>17.8798429723584</v>
       </c>
       <c r="L248">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -10565,7 +10578,7 @@
         <v>6</v>
       </c>
       <c r="D249">
-        <v>8.5619260579478507</v>
+        <v>15.4617351132596</v>
       </c>
       <c r="E249" t="str">
         <f t="shared" si="12"/>
@@ -10586,11 +10599,11 @@
       </c>
       <c r="K249">
         <f t="shared" si="14"/>
-        <v>11.553676710325799</v>
+        <v>16.939058627644599</v>
       </c>
       <c r="L249">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -10604,7 +10617,7 @@
         <v>7</v>
       </c>
       <c r="D250">
-        <v>4.0674541911430397</v>
+        <v>14.271325600401999</v>
       </c>
       <c r="E250" t="str">
         <f t="shared" si="12"/>
@@ -10625,11 +10638,11 @@
       </c>
       <c r="K250">
         <f t="shared" si="14"/>
-        <v>8.5619260579478507</v>
+        <v>15.4617351132596</v>
       </c>
       <c r="L250">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -10643,7 +10656,7 @@
         <v>8</v>
       </c>
       <c r="D251">
-        <v>3.5375271460798099</v>
+        <v>12.9035935418487</v>
       </c>
       <c r="E251" t="str">
         <f t="shared" si="12"/>
@@ -10664,11 +10677,11 @@
       </c>
       <c r="K251">
         <f t="shared" si="14"/>
-        <v>4.0674541911430397</v>
+        <v>14.271325600401999</v>
       </c>
       <c r="L251">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -10682,7 +10695,7 @@
         <v>9</v>
       </c>
       <c r="D252">
-        <v>7.6494139459755299</v>
+        <v>11.313500982738301</v>
       </c>
       <c r="E252" t="str">
         <f t="shared" si="12"/>
@@ -10703,11 +10716,11 @@
       </c>
       <c r="K252">
         <f t="shared" si="14"/>
-        <v>3.5375271460798099</v>
+        <v>12.9035935418487</v>
       </c>
       <c r="L252">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -10721,7 +10734,7 @@
         <v>10</v>
       </c>
       <c r="D253">
-        <v>10.0279351137796</v>
+        <v>10.204192537610201</v>
       </c>
       <c r="E253" t="str">
         <f t="shared" si="12"/>
@@ -10742,11 +10755,11 @@
       </c>
       <c r="K253">
         <f t="shared" si="14"/>
-        <v>7.6494139459755299</v>
+        <v>11.313500982738301</v>
       </c>
       <c r="L253">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -10760,7 +10773,7 @@
         <v>11</v>
       </c>
       <c r="D254">
-        <v>5.0252598991864899</v>
+        <v>9.3770308448616895</v>
       </c>
       <c r="E254" t="str">
         <f t="shared" si="12"/>
@@ -10781,7 +10794,7 @@
       </c>
       <c r="K254">
         <f t="shared" si="14"/>
-        <v>10.0279351137796</v>
+        <v>10.204192537610201</v>
       </c>
       <c r="L254">
         <f t="shared" si="15"/>
@@ -10799,7 +10812,7 @@
         <v>12</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>8.1184187431328301</v>
       </c>
       <c r="E255" t="str">
         <f t="shared" si="12"/>
@@ -10820,11 +10833,11 @@
       </c>
       <c r="K255">
         <f t="shared" si="14"/>
-        <v>5.0252598991864899</v>
+        <v>9.3770308448616895</v>
       </c>
       <c r="L255">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -10838,7 +10851,7 @@
         <v>13</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>7.5426593655071201</v>
       </c>
       <c r="E256" t="str">
         <f t="shared" si="12"/>
@@ -10859,11 +10872,11 @@
       </c>
       <c r="K256">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8.1184187431328301</v>
       </c>
       <c r="L256">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -10877,7 +10890,7 @@
         <v>14</v>
       </c>
       <c r="D257">
-        <v>13.234696355102599</v>
+        <v>7.3665400546202102</v>
       </c>
       <c r="E257" t="str">
         <f t="shared" si="12"/>
@@ -10898,11 +10911,11 @@
       </c>
       <c r="K257">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>7.5426593655071201</v>
       </c>
       <c r="L257">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -10916,7 +10929,7 @@
         <v>15</v>
       </c>
       <c r="D258">
-        <v>35.541761535823703</v>
+        <v>12.112332430334501</v>
       </c>
       <c r="E258" t="str">
         <f t="shared" si="12"/>
@@ -10937,11 +10950,11 @@
       </c>
       <c r="K258">
         <f t="shared" si="14"/>
-        <v>13.234696355102599</v>
+        <v>7.3665400546202102</v>
       </c>
       <c r="L258">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -10955,7 +10968,7 @@
         <v>16</v>
       </c>
       <c r="D259">
-        <v>46.320770537888102</v>
+        <v>12.330397274183699</v>
       </c>
       <c r="E259" t="str">
         <f t="shared" ref="E259:E322" si="16">B259&amp;A259&amp;C259</f>
@@ -10976,11 +10989,11 @@
       </c>
       <c r="K259">
         <f t="shared" ref="K259:K322" si="18">_xlfn.XLOOKUP(J259,$E$2:$E$417,$D$2:$D$417)</f>
-        <v>35.541761535823703</v>
+        <v>12.112332430334501</v>
       </c>
       <c r="L259">
         <f t="shared" ref="L259:L322" si="19">ROUND(K259,0)</f>
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -10994,7 +11007,7 @@
         <v>17</v>
       </c>
       <c r="D260">
-        <v>36.003462341497602</v>
+        <v>12.414016242855499</v>
       </c>
       <c r="E260" t="str">
         <f t="shared" si="16"/>
@@ -11015,11 +11028,11 @@
       </c>
       <c r="K260">
         <f t="shared" si="18"/>
-        <v>46.320770537888102</v>
+        <v>12.330397274183699</v>
       </c>
       <c r="L260">
         <f t="shared" si="19"/>
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -11033,7 +11046,7 @@
         <v>26</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>5.0036093793186396</v>
       </c>
       <c r="E261" t="str">
         <f t="shared" si="16"/>
@@ -11054,11 +11067,11 @@
       </c>
       <c r="K261">
         <f t="shared" si="18"/>
-        <v>36.003462341497602</v>
+        <v>12.414016242855499</v>
       </c>
       <c r="L261">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -11072,7 +11085,7 @@
         <v>27</v>
       </c>
       <c r="D262">
-        <v>5</v>
+        <v>4.5745445122657404</v>
       </c>
       <c r="E262" t="str">
         <f t="shared" si="16"/>
@@ -11093,7 +11106,7 @@
       </c>
       <c r="K262">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>5.0036093793186396</v>
       </c>
       <c r="L262">
         <f t="shared" si="19"/>
@@ -11111,7 +11124,7 @@
         <v>28</v>
       </c>
       <c r="D263">
-        <v>5</v>
+        <v>4.80782064284986</v>
       </c>
       <c r="E263" t="str">
         <f t="shared" si="16"/>
@@ -11132,7 +11145,7 @@
       </c>
       <c r="K263">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>4.5745445122657404</v>
       </c>
       <c r="L263">
         <f t="shared" si="19"/>
@@ -11150,7 +11163,7 @@
         <v>29</v>
       </c>
       <c r="D264">
-        <v>4.1714219311456802</v>
+        <v>5.6713123475271097</v>
       </c>
       <c r="E264" t="str">
         <f t="shared" si="16"/>
@@ -11171,7 +11184,7 @@
       </c>
       <c r="K264">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>4.80782064284986</v>
       </c>
       <c r="L264">
         <f t="shared" si="19"/>
@@ -11189,7 +11202,7 @@
         <v>30</v>
       </c>
       <c r="D265">
-        <v>2.8573573196113098</v>
+        <v>5.4879414671279196</v>
       </c>
       <c r="E265" t="str">
         <f t="shared" si="16"/>
@@ -11210,11 +11223,11 @@
       </c>
       <c r="K265">
         <f t="shared" si="18"/>
-        <v>4.1714219311456802</v>
+        <v>5.6713123475271097</v>
       </c>
       <c r="L265">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -11228,7 +11241,7 @@
         <v>31</v>
       </c>
       <c r="D266">
-        <v>4.90829704353109</v>
+        <v>8.4629532969190198</v>
       </c>
       <c r="E266" t="str">
         <f t="shared" si="16"/>
@@ -11249,11 +11262,11 @@
       </c>
       <c r="K266">
         <f t="shared" si="18"/>
-        <v>2.8573573196113098</v>
+        <v>5.4879414671279196</v>
       </c>
       <c r="L266">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -11267,7 +11280,7 @@
         <v>32</v>
       </c>
       <c r="D267">
-        <v>7.1652238286333096</v>
+        <v>5.7281785639406699</v>
       </c>
       <c r="E267" t="str">
         <f t="shared" si="16"/>
@@ -11288,11 +11301,11 @@
       </c>
       <c r="K267">
         <f t="shared" si="18"/>
-        <v>4.90829704353109</v>
+        <v>8.4629532969190198</v>
       </c>
       <c r="L267">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -11306,7 +11319,7 @@
         <v>33</v>
       </c>
       <c r="D268">
-        <v>6.66052608075187</v>
+        <v>6.8569277718572899</v>
       </c>
       <c r="E268" t="str">
         <f t="shared" si="16"/>
@@ -11327,11 +11340,11 @@
       </c>
       <c r="K268">
         <f t="shared" si="18"/>
-        <v>7.1652238286333096</v>
+        <v>5.7281785639406699</v>
       </c>
       <c r="L268">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -11345,7 +11358,7 @@
         <v>34</v>
       </c>
       <c r="D269">
-        <v>4.6795287271834196</v>
+        <v>5.0162335659572701</v>
       </c>
       <c r="E269" t="str">
         <f t="shared" si="16"/>
@@ -11366,7 +11379,7 @@
       </c>
       <c r="K269">
         <f t="shared" si="18"/>
-        <v>6.66052608075187</v>
+        <v>6.8569277718572899</v>
       </c>
       <c r="L269">
         <f t="shared" si="19"/>
@@ -11384,7 +11397,7 @@
         <v>35</v>
       </c>
       <c r="D270">
-        <v>5.0931017221437198</v>
+        <v>6.9747284207367102</v>
       </c>
       <c r="E270" t="str">
         <f t="shared" si="16"/>
@@ -11405,7 +11418,7 @@
       </c>
       <c r="K270">
         <f t="shared" si="18"/>
-        <v>4.6795287271834196</v>
+        <v>5.0162335659572701</v>
       </c>
       <c r="L270">
         <f t="shared" si="19"/>
@@ -11423,7 +11436,7 @@
         <v>36</v>
       </c>
       <c r="D271">
-        <v>8.9278323799935606</v>
+        <v>6.2937431473324104</v>
       </c>
       <c r="E271" t="str">
         <f t="shared" si="16"/>
@@ -11444,11 +11457,11 @@
       </c>
       <c r="K271">
         <f t="shared" si="18"/>
-        <v>5.0931017221437198</v>
+        <v>6.9747284207367102</v>
       </c>
       <c r="L271">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -11462,7 +11475,7 @@
         <v>37</v>
       </c>
       <c r="D272">
-        <v>12.474484905862401</v>
+        <v>7.9793044143471397</v>
       </c>
       <c r="E272" t="str">
         <f t="shared" si="16"/>
@@ -11483,11 +11496,11 @@
       </c>
       <c r="K272">
         <f t="shared" si="18"/>
-        <v>8.9278323799935606</v>
+        <v>6.2937431473324104</v>
       </c>
       <c r="L272">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -11501,7 +11514,7 @@
         <v>38</v>
       </c>
       <c r="D273">
-        <v>11.951716991995401</v>
+        <v>8.6789247062595205</v>
       </c>
       <c r="E273" t="str">
         <f t="shared" si="16"/>
@@ -11522,11 +11535,11 @@
       </c>
       <c r="K273">
         <f t="shared" si="18"/>
-        <v>12.474484905862401</v>
+        <v>7.9793044143471397</v>
       </c>
       <c r="L273">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -11540,7 +11553,7 @@
         <v>39</v>
       </c>
       <c r="D274">
-        <v>8.9369533288463501</v>
+        <v>8.8634378466527508</v>
       </c>
       <c r="E274" t="str">
         <f t="shared" si="16"/>
@@ -11561,11 +11574,11 @@
       </c>
       <c r="K274">
         <f t="shared" si="18"/>
-        <v>11.951716991995401</v>
+        <v>8.6789247062595205</v>
       </c>
       <c r="L274">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -11579,7 +11592,7 @@
         <v>40</v>
       </c>
       <c r="D275">
-        <v>9.0082220689091592</v>
+        <v>9.6206236432193108</v>
       </c>
       <c r="E275" t="str">
         <f t="shared" si="16"/>
@@ -11600,7 +11613,7 @@
       </c>
       <c r="K275">
         <f t="shared" si="18"/>
-        <v>8.9369533288463501</v>
+        <v>8.8634378466527508</v>
       </c>
       <c r="L275">
         <f t="shared" si="19"/>
@@ -11618,7 +11631,7 @@
         <v>41</v>
       </c>
       <c r="D276">
-        <v>14.424459237380599</v>
+        <v>10.1190388142179</v>
       </c>
       <c r="E276" t="str">
         <f t="shared" si="16"/>
@@ -11639,11 +11652,11 @@
       </c>
       <c r="K276">
         <f t="shared" si="18"/>
-        <v>9.0082220689091592</v>
+        <v>9.6206236432193108</v>
       </c>
       <c r="L276">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -11657,7 +11670,7 @@
         <v>42</v>
       </c>
       <c r="D277">
-        <v>19.984836485795299</v>
+        <v>11.141320090502999</v>
       </c>
       <c r="E277" t="str">
         <f t="shared" si="16"/>
@@ -11678,11 +11691,11 @@
       </c>
       <c r="K277">
         <f t="shared" si="18"/>
-        <v>14.424459237380599</v>
+        <v>10.1190388142179</v>
       </c>
       <c r="L277">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -11696,7 +11709,7 @@
         <v>43</v>
       </c>
       <c r="D278">
-        <v>18.242243494286399</v>
+        <v>12.7138941520169</v>
       </c>
       <c r="E278" t="str">
         <f t="shared" si="16"/>
@@ -11717,11 +11730,11 @@
       </c>
       <c r="K278">
         <f t="shared" si="18"/>
-        <v>19.984836485795299</v>
+        <v>11.141320090502999</v>
       </c>
       <c r="L278">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -11735,7 +11748,7 @@
         <v>44</v>
       </c>
       <c r="D279">
-        <v>8.7855991426022193</v>
+        <v>13.528029653762999</v>
       </c>
       <c r="E279" t="str">
         <f t="shared" si="16"/>
@@ -11756,11 +11769,11 @@
       </c>
       <c r="K279">
         <f t="shared" si="18"/>
-        <v>18.242243494286399</v>
+        <v>12.7138941520169</v>
       </c>
       <c r="L279">
         <f t="shared" si="19"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -11774,7 +11787,7 @@
         <v>45</v>
       </c>
       <c r="D280">
-        <v>0.31487524895692298</v>
+        <v>15.4952045585581</v>
       </c>
       <c r="E280" t="str">
         <f t="shared" si="16"/>
@@ -11795,11 +11808,11 @@
       </c>
       <c r="K280">
         <f t="shared" si="18"/>
-        <v>8.7855991426022193</v>
+        <v>13.528029653762999</v>
       </c>
       <c r="L280">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -11813,7 +11826,7 @@
         <v>46</v>
       </c>
       <c r="D281">
-        <v>1.8983983859470701</v>
+        <v>16.636121203663201</v>
       </c>
       <c r="E281" t="str">
         <f t="shared" si="16"/>
@@ -11834,11 +11847,11 @@
       </c>
       <c r="K281">
         <f t="shared" si="18"/>
-        <v>0.31487524895692298</v>
+        <v>15.4952045585581</v>
       </c>
       <c r="L281">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -11852,7 +11865,7 @@
         <v>47</v>
       </c>
       <c r="D282">
-        <v>12.843495816469799</v>
+        <v>16.4658794148115</v>
       </c>
       <c r="E282" t="str">
         <f t="shared" si="16"/>
@@ -11873,11 +11886,11 @@
       </c>
       <c r="K282">
         <f t="shared" si="18"/>
-        <v>1.8983983859470701</v>
+        <v>16.636121203663201</v>
       </c>
       <c r="L282">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -11891,7 +11904,7 @@
         <v>48</v>
       </c>
       <c r="D283">
-        <v>22.979644190770099</v>
+        <v>15.856604356763899</v>
       </c>
       <c r="E283" t="str">
         <f t="shared" si="16"/>
@@ -11912,11 +11925,11 @@
       </c>
       <c r="K283">
         <f t="shared" si="18"/>
-        <v>12.843495816469799</v>
+        <v>16.4658794148115</v>
       </c>
       <c r="L283">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -11930,7 +11943,7 @@
         <v>49</v>
       </c>
       <c r="D284">
-        <v>23.396350005406902</v>
+        <v>15.175355277278699</v>
       </c>
       <c r="E284" t="str">
         <f t="shared" si="16"/>
@@ -11951,11 +11964,11 @@
       </c>
       <c r="K284">
         <f t="shared" si="18"/>
-        <v>22.979644190770099</v>
+        <v>15.856604356763899</v>
       </c>
       <c r="L284">
         <f t="shared" si="19"/>
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -11969,7 +11982,7 @@
         <v>50</v>
       </c>
       <c r="D285">
-        <v>15.7087202295933</v>
+        <v>13.645660028089299</v>
       </c>
       <c r="E285" t="str">
         <f t="shared" si="16"/>
@@ -11990,11 +12003,11 @@
       </c>
       <c r="K285">
         <f t="shared" si="18"/>
-        <v>23.396350005406902</v>
+        <v>15.175355277278699</v>
       </c>
       <c r="L285">
         <f t="shared" si="19"/>
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -12008,7 +12021,7 @@
         <v>51</v>
       </c>
       <c r="D286">
-        <v>9.5965932065219004</v>
+        <v>13.947226067612799</v>
       </c>
       <c r="E286" t="str">
         <f t="shared" si="16"/>
@@ -12029,11 +12042,11 @@
       </c>
       <c r="K286">
         <f t="shared" si="18"/>
-        <v>15.7087202295933</v>
+        <v>13.645660028089299</v>
       </c>
       <c r="L286">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -12047,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>19.2825356066041</v>
+        <v>13.7744004905318</v>
       </c>
       <c r="E287" t="str">
         <f t="shared" si="16"/>
@@ -12068,11 +12081,11 @@
       </c>
       <c r="K287">
         <f t="shared" si="18"/>
-        <v>9.5965932065219004</v>
+        <v>13.947226067612799</v>
       </c>
       <c r="L287">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -12086,7 +12099,7 @@
         <v>2</v>
       </c>
       <c r="D288">
-        <v>23.821860817814901</v>
+        <v>15.212947443322999</v>
       </c>
       <c r="E288" t="str">
         <f t="shared" si="16"/>
@@ -12107,11 +12120,11 @@
       </c>
       <c r="K288">
         <f t="shared" si="18"/>
-        <v>12.085636244003499</v>
+        <v>14.8367760685178</v>
       </c>
       <c r="L288">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -12125,7 +12138,7 @@
         <v>3</v>
       </c>
       <c r="D289">
-        <v>21.588821706332901</v>
+        <v>15.4759246505094</v>
       </c>
       <c r="E289" t="str">
         <f t="shared" si="16"/>
@@ -12146,11 +12159,11 @@
       </c>
       <c r="K289">
         <f t="shared" si="18"/>
-        <v>19.2825356066041</v>
+        <v>13.7744004905318</v>
       </c>
       <c r="L289">
         <f t="shared" si="19"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -12164,7 +12177,7 @@
         <v>4</v>
       </c>
       <c r="D290">
-        <v>16.5498181684261</v>
+        <v>16.743753384270502</v>
       </c>
       <c r="E290" t="str">
         <f t="shared" si="16"/>
@@ -12185,11 +12198,11 @@
       </c>
       <c r="K290">
         <f t="shared" si="18"/>
-        <v>23.821860817814901</v>
+        <v>15.212947443322999</v>
       </c>
       <c r="L290">
         <f t="shared" si="19"/>
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -12203,7 +12216,7 @@
         <v>5</v>
       </c>
       <c r="D291">
-        <v>14.577765283164799</v>
+        <v>17.0758654546045</v>
       </c>
       <c r="E291" t="str">
         <f t="shared" si="16"/>
@@ -12224,11 +12237,11 @@
       </c>
       <c r="K291">
         <f t="shared" si="18"/>
-        <v>21.588821706332901</v>
+        <v>15.4759246505094</v>
       </c>
       <c r="L291">
         <f t="shared" si="19"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -12242,7 +12255,7 @@
         <v>6</v>
       </c>
       <c r="D292">
-        <v>16.325820016141702</v>
+        <v>16.205328099738502</v>
       </c>
       <c r="E292" t="str">
         <f t="shared" si="16"/>
@@ -12263,7 +12276,7 @@
       </c>
       <c r="K292">
         <f t="shared" si="18"/>
-        <v>16.5498181684261</v>
+        <v>16.743753384270502</v>
       </c>
       <c r="L292">
         <f t="shared" si="19"/>
@@ -12281,7 +12294,7 @@
         <v>7</v>
       </c>
       <c r="D293">
-        <v>17.382820698825501</v>
+        <v>16.335666898297202</v>
       </c>
       <c r="E293" t="str">
         <f t="shared" si="16"/>
@@ -12302,11 +12315,11 @@
       </c>
       <c r="K293">
         <f t="shared" si="18"/>
-        <v>14.577765283164799</v>
+        <v>17.0758654546045</v>
       </c>
       <c r="L293">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -12320,7 +12333,7 @@
         <v>8</v>
       </c>
       <c r="D294">
-        <v>14.543965298063</v>
+        <v>15.2574015412288</v>
       </c>
       <c r="E294" t="str">
         <f t="shared" si="16"/>
@@ -12341,7 +12354,7 @@
       </c>
       <c r="K294">
         <f t="shared" si="18"/>
-        <v>16.325820016141702</v>
+        <v>16.205328099738502</v>
       </c>
       <c r="L294">
         <f t="shared" si="19"/>
@@ -12359,7 +12372,7 @@
         <v>9</v>
       </c>
       <c r="D295">
-        <v>9.8295818328924707</v>
+        <v>13.5297183435028</v>
       </c>
       <c r="E295" t="str">
         <f t="shared" si="16"/>
@@ -12380,11 +12393,11 @@
       </c>
       <c r="K295">
         <f t="shared" si="18"/>
-        <v>17.382820698825501</v>
+        <v>16.335666898297202</v>
       </c>
       <c r="L295">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -12398,7 +12411,7 @@
         <v>10</v>
       </c>
       <c r="D296">
-        <v>7.5790418987780797</v>
+        <v>13.6873749489831</v>
       </c>
       <c r="E296" t="str">
         <f t="shared" si="16"/>
@@ -12419,7 +12432,7 @@
       </c>
       <c r="K296">
         <f t="shared" si="18"/>
-        <v>14.543965298063</v>
+        <v>15.2574015412288</v>
       </c>
       <c r="L296">
         <f t="shared" si="19"/>
@@ -12437,7 +12450,7 @@
         <v>11</v>
       </c>
       <c r="D297">
-        <v>8.9604177283408699</v>
+        <v>11.8418077738497</v>
       </c>
       <c r="E297" t="str">
         <f t="shared" si="16"/>
@@ -12458,11 +12471,11 @@
       </c>
       <c r="K297">
         <f t="shared" si="18"/>
-        <v>9.8295818328924707</v>
+        <v>13.5297183435028</v>
       </c>
       <c r="L297">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -12476,7 +12489,7 @@
         <v>12</v>
       </c>
       <c r="D298">
-        <v>10.974063509060199</v>
+        <v>10.831176465054</v>
       </c>
       <c r="E298" t="str">
         <f t="shared" si="16"/>
@@ -12497,11 +12510,11 @@
       </c>
       <c r="K298">
         <f t="shared" si="18"/>
-        <v>7.5790418987780797</v>
+        <v>13.6873749489831</v>
       </c>
       <c r="L298">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -12515,7 +12528,7 @@
         <v>13</v>
       </c>
       <c r="D299">
-        <v>10.6668911308743</v>
+        <v>10.279150846451399</v>
       </c>
       <c r="E299" t="str">
         <f t="shared" si="16"/>
@@ -12536,11 +12549,11 @@
       </c>
       <c r="K299">
         <f t="shared" si="18"/>
-        <v>8.9604177283408699</v>
+        <v>11.8418077738497</v>
       </c>
       <c r="L299">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
@@ -12554,7 +12567,7 @@
         <v>14</v>
       </c>
       <c r="D300">
-        <v>8.6830552727606101</v>
+        <v>9.8321401140676006</v>
       </c>
       <c r="E300" t="str">
         <f t="shared" si="16"/>
@@ -12575,7 +12588,7 @@
       </c>
       <c r="K300">
         <f t="shared" si="18"/>
-        <v>10.974063509060199</v>
+        <v>10.831176465054</v>
       </c>
       <c r="L300">
         <f t="shared" si="19"/>
@@ -12593,7 +12606,7 @@
         <v>15</v>
       </c>
       <c r="D301">
-        <v>7.7675851157664502</v>
+        <v>9.7840186459461709</v>
       </c>
       <c r="E301" t="str">
         <f t="shared" si="16"/>
@@ -12614,11 +12627,11 @@
       </c>
       <c r="K301">
         <f t="shared" si="18"/>
-        <v>10.6668911308743</v>
+        <v>10.279150846451399</v>
       </c>
       <c r="L301">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -12632,7 +12645,7 @@
         <v>16</v>
       </c>
       <c r="D302">
-        <v>8.7634824456272291</v>
+        <v>9.85391781809553</v>
       </c>
       <c r="E302" t="str">
         <f t="shared" si="16"/>
@@ -12653,11 +12666,11 @@
       </c>
       <c r="K302">
         <f t="shared" si="18"/>
-        <v>8.6830552727606101</v>
+        <v>9.8321401140676006</v>
       </c>
       <c r="L302">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
@@ -12671,7 +12684,7 @@
         <v>17</v>
       </c>
       <c r="D303">
-        <v>9.6369288592813902</v>
+        <v>9.4417129490947893</v>
       </c>
       <c r="E303" t="str">
         <f t="shared" si="16"/>
@@ -12692,11 +12705,11 @@
       </c>
       <c r="K303">
         <f t="shared" si="18"/>
-        <v>7.7675851157664502</v>
+        <v>9.7840186459461709</v>
       </c>
       <c r="L303">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -12710,7 +12723,7 @@
         <v>18</v>
       </c>
       <c r="D304">
-        <v>8.5426629751964303</v>
+        <v>8.7921825333088002</v>
       </c>
       <c r="E304" t="str">
         <f t="shared" si="16"/>
@@ -12731,11 +12744,11 @@
       </c>
       <c r="K304">
         <f t="shared" si="18"/>
-        <v>8.7634824456272291</v>
+        <v>9.85391781809553</v>
       </c>
       <c r="L304">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -12749,7 +12762,7 @@
         <v>19</v>
       </c>
       <c r="D305">
-        <v>6.4320613833506197</v>
+        <v>7.7064159367081198</v>
       </c>
       <c r="E305" t="str">
         <f t="shared" si="16"/>
@@ -12770,11 +12783,11 @@
       </c>
       <c r="K305">
         <f t="shared" si="18"/>
-        <v>9.6369288592813902</v>
+        <v>9.4417129490947893</v>
       </c>
       <c r="L305">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -12788,7 +12801,7 @@
         <v>20</v>
       </c>
       <c r="D306">
-        <v>5.6185034386144199</v>
+        <v>7.1070985015298396</v>
       </c>
       <c r="E306" t="str">
         <f t="shared" si="16"/>
@@ -12809,7 +12822,7 @@
       </c>
       <c r="K306">
         <f t="shared" si="18"/>
-        <v>8.5426629751964303</v>
+        <v>8.7921825333088002</v>
       </c>
       <c r="L306">
         <f t="shared" si="19"/>
@@ -12827,7 +12840,7 @@
         <v>21</v>
       </c>
       <c r="D307">
-        <v>6.4837403463643497</v>
+        <v>6.7223723960642303</v>
       </c>
       <c r="E307" t="str">
         <f t="shared" si="16"/>
@@ -12848,11 +12861,11 @@
       </c>
       <c r="K307">
         <f t="shared" si="18"/>
-        <v>6.4320613833506197</v>
+        <v>7.7064159367081198</v>
       </c>
       <c r="L307">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -12866,7 +12879,7 @@
         <v>22</v>
       </c>
       <c r="D308">
-        <v>7.0569321382927201</v>
+        <v>6.4206088081005799</v>
       </c>
       <c r="E308" t="str">
         <f t="shared" si="16"/>
@@ -12887,11 +12900,11 @@
       </c>
       <c r="K308">
         <f t="shared" si="18"/>
-        <v>5.6185034386144199</v>
+        <v>7.1070985015298396</v>
       </c>
       <c r="L308">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
@@ -12905,7 +12918,7 @@
         <v>23</v>
       </c>
       <c r="D309">
-        <v>6.0618567336650804</v>
+        <v>6.4871246312655302</v>
       </c>
       <c r="E309" t="str">
         <f t="shared" si="16"/>
@@ -12926,11 +12939,11 @@
       </c>
       <c r="K309">
         <f t="shared" si="18"/>
-        <v>6.4837403463643497</v>
+        <v>6.7223723960642303</v>
       </c>
       <c r="L309">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -12944,7 +12957,7 @@
         <v>24</v>
       </c>
       <c r="D310">
-        <v>5.0328747781904797</v>
+        <v>6.1516665850180399</v>
       </c>
       <c r="E310" t="str">
         <f t="shared" si="16"/>
@@ -12965,11 +12978,11 @@
       </c>
       <c r="K310">
         <f t="shared" si="18"/>
-        <v>7.0569321382927201</v>
+        <v>6.4206088081005799</v>
       </c>
       <c r="L310">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -12983,7 +12996,7 @@
         <v>25</v>
       </c>
       <c r="D311">
-        <v>6.2587063752507603</v>
+        <v>6.5335820876612596</v>
       </c>
       <c r="E311" t="str">
         <f t="shared" si="16"/>
@@ -13004,7 +13017,7 @@
       </c>
       <c r="K311">
         <f t="shared" si="18"/>
-        <v>6.0618567336650804</v>
+        <v>6.4871246312655302</v>
       </c>
       <c r="L311">
         <f t="shared" si="19"/>
@@ -13022,7 +13035,7 @@
         <v>26</v>
       </c>
       <c r="D312">
-        <v>9.1999327784997096</v>
+        <v>6.2883341478201</v>
       </c>
       <c r="E312" t="str">
         <f t="shared" si="16"/>
@@ -13043,11 +13056,11 @@
       </c>
       <c r="K312">
         <f t="shared" si="18"/>
-        <v>5.0328747781904797</v>
+        <v>6.1516665850180399</v>
       </c>
       <c r="L312">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
@@ -13061,7 +13074,7 @@
         <v>27</v>
       </c>
       <c r="D313">
-        <v>10.512394082990699</v>
+        <v>6.2975380918302299</v>
       </c>
       <c r="E313" t="str">
         <f t="shared" si="16"/>
@@ -13082,11 +13095,11 @@
       </c>
       <c r="K313">
         <f t="shared" si="18"/>
-        <v>6.2587063752507603</v>
+        <v>6.5335820876612596</v>
       </c>
       <c r="L313">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
@@ -13100,7 +13113,7 @@
         <v>28</v>
       </c>
       <c r="D314">
-        <v>8.1466423743113392</v>
+        <v>6.4288345181762896</v>
       </c>
       <c r="E314" t="str">
         <f t="shared" si="16"/>
@@ -13121,11 +13134,11 @@
       </c>
       <c r="K314">
         <f t="shared" si="18"/>
-        <v>9.1999327784997096</v>
+        <v>6.2883341478201</v>
       </c>
       <c r="L314">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
@@ -13139,7 +13152,7 @@
         <v>29</v>
       </c>
       <c r="D315">
-        <v>4.2788388633298302</v>
+        <v>6.1397518540293898</v>
       </c>
       <c r="E315" t="str">
         <f t="shared" si="16"/>
@@ -13160,11 +13173,11 @@
       </c>
       <c r="K315">
         <f t="shared" si="18"/>
-        <v>10.512394082990699</v>
+        <v>6.2975380918302299</v>
       </c>
       <c r="L315">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
@@ -13178,7 +13191,7 @@
         <v>30</v>
       </c>
       <c r="D316">
-        <v>2.9308886403668999</v>
+        <v>5.44720062615378</v>
       </c>
       <c r="E316" t="str">
         <f t="shared" si="16"/>
@@ -13199,11 +13212,11 @@
       </c>
       <c r="K316">
         <f t="shared" si="18"/>
-        <v>8.1466423743113392</v>
+        <v>6.4288345181762896</v>
       </c>
       <c r="L316">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
@@ -13217,7 +13230,7 @@
         <v>31</v>
       </c>
       <c r="D317">
-        <v>5.0345253088707898</v>
+        <v>6.1186939864444296</v>
       </c>
       <c r="E317" t="str">
         <f t="shared" si="16"/>
@@ -13238,11 +13251,11 @@
       </c>
       <c r="K317">
         <f t="shared" si="18"/>
-        <v>4.2788388633298302</v>
+        <v>6.1397518540293898</v>
       </c>
       <c r="L317">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -13256,7 +13269,7 @@
         <v>32</v>
       </c>
       <c r="D318">
-        <v>7.34928110346209</v>
+        <v>6.2669858828156997</v>
       </c>
       <c r="E318" t="str">
         <f t="shared" si="16"/>
@@ -13277,11 +13290,11 @@
       </c>
       <c r="K318">
         <f t="shared" si="18"/>
-        <v>2.9308886403668999</v>
+        <v>5.44720062615378</v>
       </c>
       <c r="L318">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
@@ -13295,7 +13308,7 @@
         <v>33</v>
       </c>
       <c r="D319">
-        <v>6.8313958029530104</v>
+        <v>6.1097164519822798</v>
       </c>
       <c r="E319" t="str">
         <f t="shared" si="16"/>
@@ -13316,11 +13329,11 @@
       </c>
       <c r="K319">
         <f t="shared" si="18"/>
-        <v>5.0345253088707898</v>
+        <v>6.1186939864444296</v>
       </c>
       <c r="L319">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
@@ -13334,7 +13347,7 @@
         <v>34</v>
       </c>
       <c r="D320">
-        <v>4.7994476082603796</v>
+        <v>7.40893069658624</v>
       </c>
       <c r="E320" t="str">
         <f t="shared" si="16"/>
@@ -13355,11 +13368,11 @@
       </c>
       <c r="K320">
         <f t="shared" si="18"/>
-        <v>7.34928110346209</v>
+        <v>6.2669858828156997</v>
       </c>
       <c r="L320">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
@@ -13373,7 +13386,7 @@
         <v>35</v>
       </c>
       <c r="D321">
-        <v>5.2235014381339999</v>
+        <v>8.7410431344660608</v>
       </c>
       <c r="E321" t="str">
         <f t="shared" si="16"/>
@@ -13394,11 +13407,11 @@
       </c>
       <c r="K321">
         <f t="shared" si="18"/>
-        <v>6.8313958029530104</v>
+        <v>6.1097164519822798</v>
       </c>
       <c r="L321">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
@@ -13412,7 +13425,7 @@
         <v>36</v>
       </c>
       <c r="D322">
-        <v>9.1561156845164007</v>
+        <v>9.1204021212106294</v>
       </c>
       <c r="E322" t="str">
         <f t="shared" si="16"/>
@@ -13433,11 +13446,11 @@
       </c>
       <c r="K322">
         <f t="shared" si="18"/>
-        <v>4.7994476082603796</v>
+        <v>7.40893069658624</v>
       </c>
       <c r="L322">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
@@ -13451,7 +13464,7 @@
         <v>37</v>
       </c>
       <c r="D323">
-        <v>12.79281607567</v>
+        <v>10.5836872012542</v>
       </c>
       <c r="E323" t="str">
         <f t="shared" ref="E323:E386" si="20">B323&amp;A323&amp;C323</f>
@@ -13472,11 +13485,11 @@
       </c>
       <c r="K323">
         <f t="shared" ref="K323:K386" si="22">_xlfn.XLOOKUP(J323,$E$2:$E$417,$D$2:$D$417)</f>
-        <v>5.2235014381339999</v>
+        <v>8.7410431344660608</v>
       </c>
       <c r="L323">
         <f t="shared" ref="L323:L386" si="23">ROUND(K323,0)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
@@ -13490,7 +13503,7 @@
         <v>38</v>
       </c>
       <c r="D324">
-        <v>12.256012796923599</v>
+        <v>10.603502188483199</v>
       </c>
       <c r="E324" t="str">
         <f t="shared" si="20"/>
@@ -13511,7 +13524,7 @@
       </c>
       <c r="K324">
         <f t="shared" si="22"/>
-        <v>9.1561156845164007</v>
+        <v>9.1204021212106294</v>
       </c>
       <c r="L324">
         <f t="shared" si="23"/>
@@ -13529,7 +13542,7 @@
         <v>39</v>
       </c>
       <c r="D325">
-        <v>9.1640490034851592</v>
+        <v>11.082580727023799</v>
       </c>
       <c r="E325" t="str">
         <f t="shared" si="20"/>
@@ -13550,11 +13563,11 @@
       </c>
       <c r="K325">
         <f t="shared" si="22"/>
-        <v>12.79281607567</v>
+        <v>10.5836872012542</v>
       </c>
       <c r="L325">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
@@ -13568,7 +13581,7 @@
         <v>40</v>
       </c>
       <c r="D326">
-        <v>9.2367492436851499</v>
+        <v>11.8767033545712</v>
       </c>
       <c r="E326" t="str">
         <f t="shared" si="20"/>
@@ -13589,11 +13602,11 @@
       </c>
       <c r="K326">
         <f t="shared" si="22"/>
-        <v>12.256012796923599</v>
+        <v>10.603502188483199</v>
       </c>
       <c r="L326">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
@@ -13607,7 +13620,7 @@
         <v>41</v>
       </c>
       <c r="D327">
-        <v>14.7895975334522</v>
+        <v>13.2169989977713</v>
       </c>
       <c r="E327" t="str">
         <f t="shared" si="20"/>
@@ -13628,11 +13641,11 @@
       </c>
       <c r="K327">
         <f t="shared" si="22"/>
-        <v>9.1640490034851592</v>
+        <v>11.082580727023799</v>
       </c>
       <c r="L327">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
@@ -13646,7 +13659,7 @@
         <v>42</v>
       </c>
       <c r="D328">
-        <v>20.4891243138654</v>
+        <v>13.735613108758701</v>
       </c>
       <c r="E328" t="str">
         <f t="shared" si="20"/>
@@ -13667,11 +13680,11 @@
       </c>
       <c r="K328">
         <f t="shared" si="22"/>
-        <v>9.2367492436851499</v>
+        <v>11.8767033545712</v>
       </c>
       <c r="L328">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
@@ -13685,7 +13698,7 @@
         <v>43</v>
       </c>
       <c r="D329">
-        <v>18.7009443305551</v>
+        <v>14.1053246636738</v>
       </c>
       <c r="E329" t="str">
         <f t="shared" si="20"/>
@@ -13706,11 +13719,11 @@
       </c>
       <c r="K329">
         <f t="shared" si="22"/>
-        <v>14.7895975334522</v>
+        <v>13.2169989977713</v>
       </c>
       <c r="L329">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
@@ -13724,7 +13737,7 @@
         <v>44</v>
       </c>
       <c r="D330">
-        <v>9.0059658347317892</v>
+        <v>14.626093001390499</v>
       </c>
       <c r="E330" t="str">
         <f t="shared" si="20"/>
@@ -13745,11 +13758,11 @@
       </c>
       <c r="K330">
         <f t="shared" si="22"/>
-        <v>20.4891243138654</v>
+        <v>13.735613108758701</v>
       </c>
       <c r="L330">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
@@ -13763,7 +13776,7 @@
         <v>45</v>
       </c>
       <c r="D331">
-        <v>0.32276686287786999</v>
+        <v>16.316231732540501</v>
       </c>
       <c r="E331" t="str">
         <f t="shared" si="20"/>
@@ -13784,11 +13797,11 @@
       </c>
       <c r="K331">
         <f t="shared" si="22"/>
-        <v>18.7009443305551</v>
+        <v>14.1053246636738</v>
       </c>
       <c r="L331">
         <f t="shared" si="23"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
@@ -13802,7 +13815,7 @@
         <v>46</v>
       </c>
       <c r="D332">
-        <v>1.9459673781620901</v>
+        <v>16.633254367187799</v>
       </c>
       <c r="E332" t="str">
         <f t="shared" si="20"/>
@@ -13823,11 +13836,11 @@
       </c>
       <c r="K332">
         <f t="shared" si="22"/>
-        <v>9.0059658347317892</v>
+        <v>14.626093001390499</v>
       </c>
       <c r="L332">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
@@ -13841,7 +13854,7 @@
         <v>47</v>
       </c>
       <c r="D333">
-        <v>13.164882275328599</v>
+        <v>17.055613385818301</v>
       </c>
       <c r="E333" t="str">
         <f t="shared" si="20"/>
@@ -13862,11 +13875,11 @@
       </c>
       <c r="K333">
         <f t="shared" si="22"/>
-        <v>0.32276686287786999</v>
+        <v>16.316231732540501</v>
       </c>
       <c r="L333">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
@@ -13880,7 +13893,7 @@
         <v>48</v>
       </c>
       <c r="D334">
-        <v>23.5527995586353</v>
+        <v>17.1505107493388</v>
       </c>
       <c r="E334" t="str">
         <f t="shared" si="20"/>
@@ -13901,11 +13914,11 @@
       </c>
       <c r="K334">
         <f t="shared" si="22"/>
-        <v>1.9459673781620901</v>
+        <v>16.633254367187799</v>
       </c>
       <c r="L334">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
@@ -13919,7 +13932,7 @@
         <v>49</v>
       </c>
       <c r="D335">
-        <v>23.977453766303299</v>
+        <v>16.018293628813002</v>
       </c>
       <c r="E335" t="str">
         <f t="shared" si="20"/>
@@ -13940,11 +13953,11 @@
       </c>
       <c r="K335">
         <f t="shared" si="22"/>
-        <v>13.164882275328599</v>
+        <v>17.055613385818301</v>
       </c>
       <c r="L335">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
@@ -13958,7 +13971,7 @@
         <v>50</v>
       </c>
       <c r="D336">
-        <v>16.097512085710999</v>
+        <v>15.385443608965099</v>
       </c>
       <c r="E336" t="str">
         <f t="shared" si="20"/>
@@ -13979,11 +13992,11 @@
       </c>
       <c r="K336">
         <f t="shared" si="22"/>
-        <v>23.5527995586353</v>
+        <v>17.1505107493388</v>
       </c>
       <c r="L336">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
@@ -13997,7 +14010,7 @@
         <v>51</v>
       </c>
       <c r="D337">
-        <v>9.8335712583439001</v>
+        <v>14.661224290751701</v>
       </c>
       <c r="E337" t="str">
         <f t="shared" si="20"/>
@@ -14018,11 +14031,11 @@
       </c>
       <c r="K337">
         <f t="shared" si="22"/>
-        <v>23.977453766303299</v>
+        <v>16.018293628813002</v>
       </c>
       <c r="L337">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
@@ -14036,7 +14049,7 @@
         <v>52</v>
       </c>
       <c r="D338">
-        <v>12.085636244003499</v>
+        <v>14.8367760685178</v>
       </c>
       <c r="E338" t="str">
         <f t="shared" si="20"/>
@@ -14057,11 +14070,11 @@
       </c>
       <c r="K338">
         <f t="shared" si="22"/>
-        <v>16.097512085710999</v>
+        <v>15.385443608965099</v>
       </c>
       <c r="L338">
         <f t="shared" si="23"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
@@ -14075,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>19.756468670148902</v>
+        <v>16.034217631000999</v>
       </c>
       <c r="E339" t="str">
         <f t="shared" si="20"/>
@@ -14096,11 +14109,11 @@
       </c>
       <c r="K339">
         <f t="shared" si="22"/>
-        <v>9.8335712583439001</v>
+        <v>14.661224290751701</v>
       </c>
       <c r="L339">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
@@ -14114,7 +14127,7 @@
         <v>2</v>
       </c>
       <c r="D340">
-        <v>24.405124378665199</v>
+        <v>17.0506325956766</v>
       </c>
       <c r="E340" t="str">
         <f t="shared" si="20"/>
@@ -14135,11 +14148,11 @@
       </c>
       <c r="K340">
         <f t="shared" si="22"/>
-        <v>12.356738018104799</v>
+        <v>14.8939380848502</v>
       </c>
       <c r="L340">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
@@ -14153,7 +14166,7 @@
         <v>3</v>
       </c>
       <c r="D341">
-        <v>22.115293117493799</v>
+        <v>18.741901269571301</v>
       </c>
       <c r="E341" t="str">
         <f t="shared" si="20"/>
@@ -14174,11 +14187,11 @@
       </c>
       <c r="K341">
         <f t="shared" si="22"/>
-        <v>19.756468670148902</v>
+        <v>16.034217631000999</v>
       </c>
       <c r="L341">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
@@ -14192,7 +14205,7 @@
         <v>4</v>
       </c>
       <c r="D342">
-        <v>16.952054520177601</v>
+        <v>19.665742304790001</v>
       </c>
       <c r="E342" t="str">
         <f t="shared" si="20"/>
@@ -14213,11 +14226,11 @@
       </c>
       <c r="K342">
         <f t="shared" si="22"/>
-        <v>24.405124378665199</v>
+        <v>17.0506325956766</v>
       </c>
       <c r="L342">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
@@ -14231,7 +14244,7 @@
         <v>5</v>
       </c>
       <c r="D343">
-        <v>14.9311050832448</v>
+        <v>20.5146371929856</v>
       </c>
       <c r="E343" t="str">
         <f t="shared" si="20"/>
@@ -14252,11 +14265,11 @@
       </c>
       <c r="K343">
         <f t="shared" si="22"/>
-        <v>22.115293117493799</v>
+        <v>18.741901269571301</v>
       </c>
       <c r="L343">
         <f t="shared" si="23"/>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
@@ -14270,7 +14283,7 @@
         <v>6</v>
       </c>
       <c r="D344">
-        <v>16.720461535210202</v>
+        <v>19.877664673316001</v>
       </c>
       <c r="E344" t="str">
         <f t="shared" si="20"/>
@@ -14291,11 +14304,11 @@
       </c>
       <c r="K344">
         <f t="shared" si="22"/>
-        <v>16.952054520177601</v>
+        <v>19.665742304790001</v>
       </c>
       <c r="L344">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
@@ -14309,7 +14322,7 @@
         <v>7</v>
       </c>
       <c r="D345">
-        <v>17.8017812115285</v>
+        <v>18.5411948164687</v>
       </c>
       <c r="E345" t="str">
         <f t="shared" si="20"/>
@@ -14330,11 +14343,11 @@
       </c>
       <c r="K345">
         <f t="shared" si="22"/>
-        <v>14.9311050832448</v>
+        <v>20.5146371929856</v>
       </c>
       <c r="L345">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
@@ -14348,7 +14361,7 @@
         <v>8</v>
       </c>
       <c r="D346">
-        <v>14.893535414516901</v>
+        <v>16.835056992066701</v>
       </c>
       <c r="E346" t="str">
         <f t="shared" si="20"/>
@@ -14369,11 +14382,11 @@
       </c>
       <c r="K346">
         <f t="shared" si="22"/>
-        <v>16.720461535210202</v>
+        <v>19.877664673316001</v>
       </c>
       <c r="L346">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
@@ -14387,7 +14400,7 @@
         <v>9</v>
       </c>
       <c r="D347">
-        <v>10.065342676127299</v>
+        <v>15.3572316743972</v>
       </c>
       <c r="E347" t="str">
         <f t="shared" si="20"/>
@@ -14408,11 +14421,11 @@
       </c>
       <c r="K347">
         <f t="shared" si="22"/>
-        <v>17.8017812115285</v>
+        <v>18.5411948164687</v>
       </c>
       <c r="L347">
         <f t="shared" si="23"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
@@ -14426,7 +14439,7 @@
         <v>10</v>
       </c>
       <c r="D348">
-        <v>7.7605501747202599</v>
+        <v>13.282306610744101</v>
       </c>
       <c r="E348" t="str">
         <f t="shared" si="20"/>
@@ -14447,11 +14460,11 @@
       </c>
       <c r="K348">
         <f t="shared" si="22"/>
-        <v>14.893535414516901</v>
+        <v>16.835056992066701</v>
       </c>
       <c r="L348">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
@@ -14465,7 +14478,7 @@
         <v>11</v>
       </c>
       <c r="D349">
-        <v>9.1747016644294401</v>
+        <v>12.1359014619413</v>
       </c>
       <c r="E349" t="str">
         <f t="shared" si="20"/>
@@ -14486,11 +14499,11 @@
       </c>
       <c r="K349">
         <f t="shared" si="22"/>
-        <v>10.065342676127299</v>
+        <v>15.3572316743972</v>
       </c>
       <c r="L349">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
@@ -14504,7 +14517,7 @@
         <v>12</v>
       </c>
       <c r="D350">
-        <v>11.2360536001478</v>
+        <v>10.6131838431597</v>
       </c>
       <c r="E350" t="str">
         <f t="shared" si="20"/>
@@ -14525,11 +14538,11 @@
       </c>
       <c r="K350">
         <f t="shared" si="22"/>
-        <v>7.7605501747202599</v>
+        <v>13.282306610744101</v>
       </c>
       <c r="L350">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
@@ -14543,7 +14556,7 @@
         <v>13</v>
       </c>
       <c r="D351">
-        <v>10.9210779257591</v>
+        <v>9.9972830036636502</v>
       </c>
       <c r="E351" t="str">
         <f t="shared" si="20"/>
@@ -14564,11 +14577,11 @@
       </c>
       <c r="K351">
         <f t="shared" si="22"/>
-        <v>9.1747016644294401</v>
+        <v>12.1359014619413</v>
       </c>
       <c r="L351">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
@@ -14582,7 +14595,7 @@
         <v>14</v>
       </c>
       <c r="D352">
-        <v>8.8896259734246996</v>
+        <v>9.6187331333542598</v>
       </c>
       <c r="E352" t="str">
         <f t="shared" si="20"/>
@@ -14603,7 +14616,7 @@
       </c>
       <c r="K352">
         <f t="shared" si="22"/>
-        <v>11.2360536001478</v>
+        <v>10.6131838431597</v>
       </c>
       <c r="L352">
         <f t="shared" si="23"/>
@@ -14621,7 +14634,7 @@
         <v>15</v>
       </c>
       <c r="D353">
-        <v>7.9521158582856497</v>
+        <v>10.2550071789968</v>
       </c>
       <c r="E353" t="str">
         <f t="shared" si="20"/>
@@ -14642,11 +14655,11 @@
       </c>
       <c r="K353">
         <f t="shared" si="22"/>
-        <v>10.9210779257591</v>
+        <v>9.9972830036636502</v>
       </c>
       <c r="L353">
         <f t="shared" si="23"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
@@ -14660,7 +14673,7 @@
         <v>16</v>
       </c>
       <c r="D354">
-        <v>8.9713776999742496</v>
+        <v>9.6290216304259495</v>
       </c>
       <c r="E354" t="str">
         <f t="shared" si="20"/>
@@ -14681,11 +14694,11 @@
       </c>
       <c r="K354">
         <f t="shared" si="22"/>
-        <v>8.8896259734246996</v>
+        <v>9.6187331333542598</v>
       </c>
       <c r="L354">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
@@ -14699,7 +14712,7 @@
         <v>17</v>
       </c>
       <c r="D355">
-        <v>9.8651874749220898</v>
+        <v>9.0690542836914201</v>
       </c>
       <c r="E355" t="str">
         <f t="shared" si="20"/>
@@ -14720,11 +14733,11 @@
       </c>
       <c r="K355">
         <f t="shared" si="22"/>
-        <v>7.9521158582856497</v>
+        <v>10.2550071789968</v>
       </c>
       <c r="L355">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
@@ -14738,7 +14751,7 @@
         <v>18</v>
       </c>
       <c r="D356">
-        <v>8.7446953786948107</v>
+        <v>7.9381665082701698</v>
       </c>
       <c r="E356" t="str">
         <f t="shared" si="20"/>
@@ -14759,11 +14772,11 @@
       </c>
       <c r="K356">
         <f t="shared" si="22"/>
-        <v>8.9713776999742496</v>
+        <v>9.6290216304259495</v>
       </c>
       <c r="L356">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
@@ -14777,7 +14790,7 @@
         <v>19</v>
       </c>
       <c r="D357">
-        <v>6.5839845152222498</v>
+        <v>7.1656875887783302</v>
       </c>
       <c r="E357" t="str">
         <f t="shared" si="20"/>
@@ -14798,11 +14811,11 @@
       </c>
       <c r="K357">
         <f t="shared" si="22"/>
-        <v>9.8651874749220898</v>
+        <v>9.0690542836914201</v>
       </c>
       <c r="L357">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
@@ -14816,7 +14829,7 @@
         <v>20</v>
       </c>
       <c r="D358">
-        <v>5.7510738113678599</v>
+        <v>6.4537012979396096</v>
       </c>
       <c r="E358" t="str">
         <f t="shared" si="20"/>
@@ -14837,11 +14850,11 @@
       </c>
       <c r="K358">
         <f t="shared" si="22"/>
-        <v>8.7446953786948107</v>
+        <v>7.9381665082701698</v>
       </c>
       <c r="L358">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
@@ -14855,7 +14868,7 @@
         <v>21</v>
       </c>
       <c r="D359">
-        <v>6.6365673946984298</v>
+        <v>6.2500850488638298</v>
       </c>
       <c r="E359" t="str">
         <f t="shared" si="20"/>
@@ -14876,7 +14889,7 @@
       </c>
       <c r="K359">
         <f t="shared" si="22"/>
-        <v>6.5839845152222498</v>
+        <v>7.1656875887783302</v>
       </c>
       <c r="L359">
         <f t="shared" si="23"/>
@@ -14894,7 +14907,7 @@
         <v>22</v>
       </c>
       <c r="D360">
-        <v>7.2230862618143803</v>
+        <v>5.4703648291289904</v>
       </c>
       <c r="E360" t="str">
         <f t="shared" si="20"/>
@@ -14915,7 +14928,7 @@
       </c>
       <c r="K360">
         <f t="shared" si="22"/>
-        <v>5.7510738113678599</v>
+        <v>6.4537012979396096</v>
       </c>
       <c r="L360">
         <f t="shared" si="23"/>
@@ -14933,7 +14946,7 @@
         <v>23</v>
       </c>
       <c r="D361">
-        <v>6.2045085127192499</v>
+        <v>5.3586525789372903</v>
       </c>
       <c r="E361" t="str">
         <f t="shared" si="20"/>
@@ -14954,11 +14967,11 @@
       </c>
       <c r="K361">
         <f t="shared" si="22"/>
-        <v>6.6365673946984298</v>
+        <v>6.2500850488638298</v>
       </c>
       <c r="L361">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
@@ -14972,7 +14985,7 @@
         <v>24</v>
       </c>
       <c r="D362">
-        <v>5.15128540444584</v>
+        <v>5.0150058435156</v>
       </c>
       <c r="E362" t="str">
         <f t="shared" si="20"/>
@@ -14993,11 +15006,11 @@
       </c>
       <c r="K362">
         <f t="shared" si="22"/>
-        <v>7.2230862618143803</v>
+        <v>5.4703648291289904</v>
       </c>
       <c r="L362">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
@@ -15011,7 +15024,7 @@
         <v>25</v>
       </c>
       <c r="D363">
-        <v>6.4056701677090997</v>
+        <v>4.9087664514062102</v>
       </c>
       <c r="E363" t="str">
         <f t="shared" si="20"/>
@@ -15032,11 +15045,11 @@
       </c>
       <c r="K363">
         <f t="shared" si="22"/>
-        <v>6.2045085127192499</v>
+        <v>5.3586525789372903</v>
       </c>
       <c r="L363">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
@@ -15050,7 +15063,7 @@
         <v>26</v>
       </c>
       <c r="D364">
-        <v>9.4155317706408805</v>
+        <v>5.0221253605405796</v>
       </c>
       <c r="E364" t="str">
         <f t="shared" si="20"/>
@@ -15071,7 +15084,7 @@
       </c>
       <c r="K364">
         <f t="shared" si="22"/>
-        <v>5.15128540444584</v>
+        <v>5.0150058435156</v>
       </c>
       <c r="L364">
         <f t="shared" si="23"/>
@@ -15089,7 +15102,7 @@
         <v>27</v>
       </c>
       <c r="D365">
-        <v>10.7583844743212</v>
+        <v>5.15802456037326</v>
       </c>
       <c r="E365" t="str">
         <f t="shared" si="20"/>
@@ -15110,11 +15123,11 @@
       </c>
       <c r="K365">
         <f t="shared" si="22"/>
-        <v>6.4056701677090997</v>
+        <v>4.9087664514062102</v>
       </c>
       <c r="L365">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
@@ -15128,7 +15141,7 @@
         <v>28</v>
       </c>
       <c r="D366">
-        <v>8.3370138390109698</v>
+        <v>5.3924521142912996</v>
       </c>
       <c r="E366" t="str">
         <f t="shared" si="20"/>
@@ -15149,11 +15162,11 @@
       </c>
       <c r="K366">
         <f t="shared" si="22"/>
-        <v>9.4155317706408805</v>
+        <v>5.0221253605405796</v>
       </c>
       <c r="L366">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
@@ -15167,7 +15180,7 @@
         <v>29</v>
       </c>
       <c r="D367">
-        <v>4.37871671466928</v>
+        <v>4.5588955743651898</v>
       </c>
       <c r="E367" t="str">
         <f t="shared" si="20"/>
@@ -15188,11 +15201,11 @@
       </c>
       <c r="K367">
         <f t="shared" si="22"/>
-        <v>10.7583844743212</v>
+        <v>5.15802456037326</v>
       </c>
       <c r="L367">
         <f t="shared" si="23"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
@@ -15206,7 +15219,7 @@
         <v>30</v>
       </c>
       <c r="D368">
-        <v>2.99926218561904</v>
+        <v>5.3365660129866903</v>
       </c>
       <c r="E368" t="str">
         <f t="shared" si="20"/>
@@ -15227,11 +15240,11 @@
       </c>
       <c r="K368">
         <f t="shared" si="22"/>
-        <v>8.3370138390109698</v>
+        <v>5.3924521142912996</v>
       </c>
       <c r="L368">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
@@ -15245,7 +15258,7 @@
         <v>31</v>
       </c>
       <c r="D369">
-        <v>5.1519046686316798</v>
+        <v>4.6702294250909002</v>
       </c>
       <c r="E369" t="str">
         <f t="shared" si="20"/>
@@ -15266,11 +15279,11 @@
       </c>
       <c r="K369">
         <f t="shared" si="22"/>
-        <v>4.37871671466928</v>
+        <v>4.5588955743651898</v>
       </c>
       <c r="L369">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
@@ -15284,7 +15297,7 @@
         <v>32</v>
       </c>
       <c r="D370">
-        <v>7.5204491063550396</v>
+        <v>5.2786437746953903</v>
       </c>
       <c r="E370" t="str">
         <f t="shared" si="20"/>
@@ -15305,11 +15318,11 @@
       </c>
       <c r="K370">
         <f t="shared" si="22"/>
-        <v>2.99926218561904</v>
+        <v>5.3365660129866903</v>
       </c>
       <c r="L370">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
@@ -15323,7 +15336,7 @@
         <v>33</v>
       </c>
       <c r="D371">
-        <v>6.9903139633279299</v>
+        <v>6.0443981411145904</v>
       </c>
       <c r="E371" t="str">
         <f t="shared" si="20"/>
@@ -15344,7 +15357,7 @@
       </c>
       <c r="K371">
         <f t="shared" si="22"/>
-        <v>5.1519046686316798</v>
+        <v>4.6702294250909002</v>
       </c>
       <c r="L371">
         <f t="shared" si="23"/>
@@ -15362,7 +15375,7 @@
         <v>34</v>
       </c>
       <c r="D372">
-        <v>4.9109869936401003</v>
+        <v>7.21823297670168</v>
       </c>
       <c r="E372" t="str">
         <f t="shared" si="20"/>
@@ -15383,11 +15396,11 @@
       </c>
       <c r="K372">
         <f t="shared" si="22"/>
-        <v>7.5204491063550396</v>
+        <v>5.2786437746953903</v>
       </c>
       <c r="L372">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
@@ -15401,7 +15414,7 @@
         <v>35</v>
       </c>
       <c r="D373">
-        <v>5.3447967649453796</v>
+        <v>8.0456607551092993</v>
       </c>
       <c r="E373" t="str">
         <f t="shared" si="20"/>
@@ -15422,11 +15435,11 @@
       </c>
       <c r="K373">
         <f t="shared" si="22"/>
-        <v>6.9903139633279299</v>
+        <v>6.0443981411145904</v>
       </c>
       <c r="L373">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
@@ -15440,7 +15453,7 @@
         <v>36</v>
       </c>
       <c r="D374">
-        <v>9.3684793739202998</v>
+        <v>9.2905333437452207</v>
       </c>
       <c r="E374" t="str">
         <f t="shared" si="20"/>
@@ -15461,11 +15474,11 @@
       </c>
       <c r="K374">
         <f t="shared" si="22"/>
-        <v>4.9109869936401003</v>
+        <v>7.21823297670168</v>
       </c>
       <c r="L374">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
@@ -15479,7 +15492,7 @@
         <v>37</v>
       </c>
       <c r="D375">
-        <v>13.088988577499499</v>
+        <v>10.2876189368525</v>
       </c>
       <c r="E375" t="str">
         <f t="shared" si="20"/>
@@ -15500,11 +15513,11 @@
       </c>
       <c r="K375">
         <f t="shared" si="22"/>
-        <v>5.3447967649453796</v>
+        <v>8.0456607551092993</v>
       </c>
       <c r="L375">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
@@ -15518,7 +15531,7 @@
         <v>38</v>
       </c>
       <c r="D376">
-        <v>12.539170911629199</v>
+        <v>10.154670105396001</v>
       </c>
       <c r="E376" t="str">
         <f t="shared" si="20"/>
@@ -15539,7 +15552,7 @@
       </c>
       <c r="K376">
         <f t="shared" si="22"/>
-        <v>9.3684793739202998</v>
+        <v>9.2905333437452207</v>
       </c>
       <c r="L376">
         <f t="shared" si="23"/>
@@ -15557,7 +15570,7 @@
         <v>39</v>
       </c>
       <c r="D377">
-        <v>9.3753976340731207</v>
+        <v>10.988694344570501</v>
       </c>
       <c r="E377" t="str">
         <f t="shared" si="20"/>
@@ -15578,11 +15591,11 @@
       </c>
       <c r="K377">
         <f t="shared" si="22"/>
-        <v>13.088988577499499</v>
+        <v>10.2876189368525</v>
       </c>
       <c r="L377">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
@@ -15596,7 +15609,7 @@
         <v>40</v>
       </c>
       <c r="D378">
-        <v>9.4494540574551102</v>
+        <v>11.233605988987099</v>
       </c>
       <c r="E378" t="str">
         <f t="shared" si="20"/>
@@ -15617,11 +15630,11 @@
       </c>
       <c r="K378">
         <f t="shared" si="22"/>
-        <v>12.539170911629199</v>
+        <v>10.154670105396001</v>
       </c>
       <c r="L378">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
@@ -15635,7 +15648,7 @@
         <v>41</v>
       </c>
       <c r="D379">
-        <v>15.129504908531</v>
+        <v>12.9593490272786</v>
       </c>
       <c r="E379" t="str">
         <f t="shared" si="20"/>
@@ -15656,11 +15669,11 @@
       </c>
       <c r="K379">
         <f t="shared" si="22"/>
-        <v>9.3753976340731207</v>
+        <v>10.988694344570501</v>
       </c>
       <c r="L379">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
@@ -15674,7 +15687,7 @@
         <v>42</v>
       </c>
       <c r="D380">
-        <v>20.958666843130199</v>
+        <v>13.6478734873647</v>
       </c>
       <c r="E380" t="str">
         <f t="shared" si="20"/>
@@ -15695,11 +15708,11 @@
       </c>
       <c r="K380">
         <f t="shared" si="22"/>
-        <v>9.4494540574551102</v>
+        <v>11.233605988987099</v>
       </c>
       <c r="L380">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
@@ -15713,7 +15726,7 @@
         <v>43</v>
       </c>
       <c r="D381">
-        <v>19.128141970934799</v>
+        <v>14.465029751811301</v>
       </c>
       <c r="E381" t="str">
         <f t="shared" si="20"/>
@@ -15734,11 +15747,11 @@
       </c>
       <c r="K381">
         <f t="shared" si="22"/>
-        <v>15.129504908531</v>
+        <v>12.9593490272786</v>
       </c>
       <c r="L381">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
@@ -15752,7 +15765,7 @@
         <v>44</v>
       </c>
       <c r="D382">
-        <v>9.2112321270597004</v>
+        <v>16.655569919767501</v>
       </c>
       <c r="E382" t="str">
         <f t="shared" si="20"/>
@@ -15773,11 +15786,11 @@
       </c>
       <c r="K382">
         <f t="shared" si="22"/>
-        <v>20.958666843130199</v>
+        <v>13.6478734873647</v>
       </c>
       <c r="L382">
         <f t="shared" si="23"/>
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
@@ -15791,7 +15804,7 @@
         <v>45</v>
       </c>
       <c r="D383">
-        <v>0.33011810650805201</v>
+        <v>17.3211356873854</v>
       </c>
       <c r="E383" t="str">
         <f t="shared" si="20"/>
@@ -15812,11 +15825,11 @@
       </c>
       <c r="K383">
         <f t="shared" si="22"/>
-        <v>19.128141970934799</v>
+        <v>14.465029751811301</v>
       </c>
       <c r="L383">
         <f t="shared" si="23"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
@@ -15830,7 +15843,7 @@
         <v>46</v>
       </c>
       <c r="D384">
-        <v>1.99027975422268</v>
+        <v>18.294258421551302</v>
       </c>
       <c r="E384" t="str">
         <f t="shared" si="20"/>
@@ -15851,11 +15864,11 @@
       </c>
       <c r="K384">
         <f t="shared" si="22"/>
-        <v>9.2112321270597004</v>
+        <v>16.655569919767501</v>
       </c>
       <c r="L384">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
@@ -15869,7 +15882,7 @@
         <v>47</v>
       </c>
       <c r="D385">
-        <v>13.4642936748123</v>
+        <v>18.176329043369499</v>
       </c>
       <c r="E385" t="str">
         <f t="shared" si="20"/>
@@ -15890,11 +15903,11 @@
       </c>
       <c r="K385">
         <f t="shared" si="22"/>
-        <v>0.33011810650805201</v>
+        <v>17.3211356873854</v>
       </c>
       <c r="L385">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
@@ -15908,7 +15921,7 @@
         <v>48</v>
       </c>
       <c r="D386">
-        <v>24.086881332816102</v>
+        <v>17.737225436636301</v>
       </c>
       <c r="E386" t="str">
         <f t="shared" si="20"/>
@@ -15929,11 +15942,11 @@
       </c>
       <c r="K386">
         <f t="shared" si="22"/>
-        <v>1.99027975422268</v>
+        <v>18.294258421551302</v>
       </c>
       <c r="L386">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
@@ -15947,7 +15960,7 @@
         <v>49</v>
       </c>
       <c r="D387">
-        <v>24.519093640096798</v>
+        <v>17.0364294771936</v>
       </c>
       <c r="E387" t="str">
         <f t="shared" ref="E387:E417" si="24">B387&amp;A387&amp;C387</f>
@@ -15968,11 +15981,11 @@
       </c>
       <c r="K387">
         <f t="shared" ref="K387:K417" si="26">_xlfn.XLOOKUP(J387,$E$2:$E$417,$D$2:$D$417)</f>
-        <v>13.4642936748123</v>
+        <v>18.176329043369499</v>
       </c>
       <c r="L387">
         <f t="shared" ref="L387:L417" si="27">ROUND(K387,0)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
@@ -15986,7 +15999,7 @@
         <v>50</v>
       </c>
       <c r="D388">
-        <v>16.459985126482898</v>
+        <v>16.206618831940201</v>
       </c>
       <c r="E388" t="str">
         <f t="shared" si="24"/>
@@ -16007,11 +16020,11 @@
       </c>
       <c r="K388">
         <f t="shared" si="26"/>
-        <v>24.086881332816102</v>
+        <v>17.737225436636301</v>
       </c>
       <c r="L388">
         <f t="shared" si="27"/>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
@@ -16025,7 +16038,7 @@
         <v>51</v>
       </c>
       <c r="D389">
-        <v>10.0545405769144</v>
+        <v>15.4994209822397</v>
       </c>
       <c r="E389" t="str">
         <f t="shared" si="24"/>
@@ -16046,11 +16059,11 @@
       </c>
       <c r="K389">
         <f t="shared" si="26"/>
-        <v>24.519093640096798</v>
+        <v>17.0364294771936</v>
       </c>
       <c r="L389">
         <f t="shared" si="27"/>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
@@ -16064,7 +16077,7 @@
         <v>52</v>
       </c>
       <c r="D390">
-        <v>12.356738018104799</v>
+        <v>14.8939380848502</v>
       </c>
       <c r="E390" t="str">
         <f t="shared" si="24"/>
@@ -16085,7 +16098,7 @@
       </c>
       <c r="K390">
         <f t="shared" si="26"/>
-        <v>16.459985126482898</v>
+        <v>16.206618831940201</v>
       </c>
       <c r="L390">
         <f t="shared" si="27"/>
@@ -16103,7 +16116,7 @@
         <v>1</v>
       </c>
       <c r="D391">
-        <v>20.198522812925098</v>
+        <v>15.3021339747852</v>
       </c>
       <c r="E391" t="str">
         <f t="shared" si="24"/>
@@ -16124,11 +16137,11 @@
       </c>
       <c r="K391">
         <f t="shared" si="26"/>
-        <v>10.0545405769144</v>
+        <v>15.4994209822397</v>
       </c>
       <c r="L391">
         <f t="shared" si="27"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
@@ -16142,7 +16155,7 @@
         <v>2</v>
       </c>
       <c r="D392">
-        <v>24.9492920674892</v>
+        <v>15.406370519043101</v>
       </c>
       <c r="E392" t="str">
         <f t="shared" si="24"/>
@@ -16163,11 +16176,11 @@
       </c>
       <c r="K392">
         <f t="shared" si="26"/>
-        <v>20.198522812925098</v>
+        <v>15.3021339747852</v>
       </c>
       <c r="L392">
         <f t="shared" si="27"/>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
@@ -16181,7 +16194,7 @@
         <v>3</v>
       </c>
       <c r="D393">
-        <v>22.606604714900602</v>
+        <v>16.175558280651799</v>
       </c>
       <c r="E393" t="str">
         <f t="shared" si="24"/>
@@ -16202,11 +16215,11 @@
       </c>
       <c r="K393">
         <f t="shared" si="26"/>
-        <v>24.9492920674892</v>
+        <v>15.406370519043101</v>
       </c>
       <c r="L393">
         <f t="shared" si="27"/>
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
@@ -16220,7 +16233,7 @@
         <v>4</v>
       </c>
       <c r="D394">
-        <v>17.327510322090301</v>
+        <v>17.008521877674202</v>
       </c>
       <c r="E394" t="str">
         <f t="shared" si="24"/>
@@ -16241,11 +16254,11 @@
       </c>
       <c r="K394">
         <f t="shared" si="26"/>
-        <v>22.606604714900602</v>
+        <v>16.175558280651799</v>
       </c>
       <c r="L394">
         <f t="shared" si="27"/>
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
@@ -16259,7 +16272,7 @@
         <v>5</v>
       </c>
       <c r="D395">
-        <v>15.2609785561562</v>
+        <v>17.099825687366099</v>
       </c>
       <c r="E395" t="str">
         <f t="shared" si="24"/>
@@ -16280,7 +16293,7 @@
       </c>
       <c r="K395">
         <f t="shared" si="26"/>
-        <v>17.327510322090301</v>
+        <v>17.008521877674202</v>
       </c>
       <c r="L395">
         <f t="shared" si="27"/>
@@ -16298,7 +16311,7 @@
         <v>6</v>
       </c>
       <c r="D396">
-        <v>17.088958503022599</v>
+        <v>17.595918445346101</v>
       </c>
       <c r="E396" t="str">
         <f t="shared" si="24"/>
@@ -16319,11 +16332,11 @@
       </c>
       <c r="K396">
         <f t="shared" si="26"/>
-        <v>15.2609785561562</v>
+        <v>17.099825687366099</v>
       </c>
       <c r="L396">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
@@ -16337,7 +16350,7 @@
         <v>7</v>
       </c>
       <c r="D397">
-        <v>18.1930605466695</v>
+        <v>15.4500278514504</v>
       </c>
       <c r="E397" t="str">
         <f t="shared" si="24"/>
@@ -16358,11 +16371,11 @@
       </c>
       <c r="K397">
         <f t="shared" si="26"/>
-        <v>17.088958503022599</v>
+        <v>17.595918445346101</v>
       </c>
       <c r="L397">
         <f t="shared" si="27"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
@@ -16376,7 +16389,7 @@
         <v>8</v>
       </c>
       <c r="D398">
-        <v>15.220067481815899</v>
+        <v>13.9744535907429</v>
       </c>
       <c r="E398" t="str">
         <f t="shared" si="24"/>
@@ -16397,11 +16410,11 @@
       </c>
       <c r="K398">
         <f t="shared" si="26"/>
-        <v>18.1930605466695</v>
+        <v>15.4500278514504</v>
       </c>
       <c r="L398">
         <f t="shared" si="27"/>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
@@ -16415,7 +16428,7 @@
         <v>9</v>
       </c>
       <c r="D399">
-        <v>10.285595894059</v>
+        <v>13.543623749416801</v>
       </c>
       <c r="E399" t="str">
         <f t="shared" si="24"/>
@@ -16436,11 +16449,11 @@
       </c>
       <c r="K399">
         <f t="shared" si="26"/>
-        <v>15.220067481815899</v>
+        <v>13.9744535907429</v>
       </c>
       <c r="L399">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
@@ -16454,7 +16467,7 @@
         <v>10</v>
       </c>
       <c r="D400">
-        <v>7.9301358629363596</v>
+        <v>11.906634549312299</v>
       </c>
       <c r="E400" t="str">
         <f t="shared" si="24"/>
@@ -16475,11 +16488,11 @@
       </c>
       <c r="K400">
         <f t="shared" si="26"/>
-        <v>10.285595894059</v>
+        <v>13.543623749416801</v>
       </c>
       <c r="L400">
         <f t="shared" si="27"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
@@ -16493,7 +16506,7 @@
         <v>11</v>
       </c>
       <c r="D401">
-        <v>9.3749285195435696</v>
+        <v>11.6061493652238</v>
       </c>
       <c r="E401" t="str">
         <f t="shared" si="24"/>
@@ -16514,11 +16527,11 @@
       </c>
       <c r="K401">
         <f t="shared" si="26"/>
-        <v>7.9301358629363596</v>
+        <v>11.906634549312299</v>
       </c>
       <c r="L401">
         <f t="shared" si="27"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
@@ -16532,7 +16545,7 @@
         <v>12</v>
       </c>
       <c r="D402">
-        <v>11.4808840197047</v>
+        <v>11.189452444692201</v>
       </c>
       <c r="E402" t="str">
         <f t="shared" si="24"/>
@@ -16553,11 +16566,11 @@
       </c>
       <c r="K402">
         <f t="shared" si="26"/>
-        <v>9.3749285195435696</v>
+        <v>11.6061493652238</v>
       </c>
       <c r="L402">
         <f t="shared" si="27"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
@@ -16571,7 +16584,7 @@
         <v>13</v>
       </c>
       <c r="D403">
-        <v>11.1586443042679</v>
+        <v>10.260816491973699</v>
       </c>
       <c r="E403" t="str">
         <f t="shared" si="24"/>
@@ -16592,7 +16605,7 @@
       </c>
       <c r="K403">
         <f t="shared" si="26"/>
-        <v>11.4808840197047</v>
+        <v>11.189452444692201</v>
       </c>
       <c r="L403">
         <f t="shared" si="27"/>
@@ -16610,7 +16623,7 @@
         <v>14</v>
       </c>
       <c r="D404">
-        <v>9.0827101892427802</v>
+        <v>10.4143456943782</v>
       </c>
       <c r="E404" t="str">
         <f t="shared" si="24"/>
@@ -16631,11 +16644,11 @@
       </c>
       <c r="K404">
         <f t="shared" si="26"/>
-        <v>11.1586443042679</v>
+        <v>10.260816491973699</v>
       </c>
       <c r="L404">
         <f t="shared" si="27"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
@@ -16649,7 +16662,7 @@
         <v>15</v>
       </c>
       <c r="D405">
-        <v>8.1246146337925893</v>
+        <v>10.053025858061099</v>
       </c>
       <c r="E405" t="str">
         <f t="shared" si="24"/>
@@ -16670,11 +16683,11 @@
       </c>
       <c r="K405">
         <f t="shared" si="26"/>
-        <v>9.0827101892427802</v>
+        <v>10.4143456943782</v>
       </c>
       <c r="L405">
         <f t="shared" si="27"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
@@ -16688,7 +16701,7 @@
         <v>16</v>
       </c>
       <c r="D406">
-        <v>9.1657351272142407</v>
+        <v>9.7023634512664394</v>
       </c>
       <c r="E406" t="str">
         <f t="shared" si="24"/>
@@ -16709,11 +16722,11 @@
       </c>
       <c r="K406">
         <f t="shared" si="26"/>
-        <v>8.1246146337925893</v>
+        <v>10.053025858061099</v>
       </c>
       <c r="L406">
         <f t="shared" si="27"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
@@ -16727,7 +16740,7 @@
         <v>17</v>
       </c>
       <c r="D407">
-        <v>10.0786035300316</v>
+        <v>8.5723926028638804</v>
       </c>
       <c r="E407" t="str">
         <f t="shared" si="24"/>
@@ -16748,11 +16761,11 @@
       </c>
       <c r="K407">
         <f t="shared" si="26"/>
-        <v>9.1657351272142407</v>
+        <v>9.7023634512664394</v>
       </c>
       <c r="L407">
         <f t="shared" si="27"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
@@ -16766,7 +16779,7 @@
         <v>18</v>
       </c>
       <c r="D408">
-        <v>8.9336089023236092</v>
+        <v>8.4544228376660104</v>
       </c>
       <c r="E408" t="str">
         <f t="shared" si="24"/>
@@ -16787,11 +16800,11 @@
       </c>
       <c r="K408">
         <f t="shared" si="26"/>
-        <v>10.0786035300316</v>
+        <v>8.5723926028638804</v>
       </c>
       <c r="L408">
         <f t="shared" si="27"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
@@ -16805,7 +16818,7 @@
         <v>19</v>
       </c>
       <c r="D409">
-        <v>6.7260541202567703</v>
+        <v>7.47367636025864</v>
       </c>
       <c r="E409" t="str">
         <f t="shared" si="24"/>
@@ -16826,11 +16839,11 @@
       </c>
       <c r="K409">
         <f t="shared" si="26"/>
-        <v>8.9336089023236092</v>
+        <v>8.4544228376660104</v>
       </c>
       <c r="L409">
         <f t="shared" si="27"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
@@ -16844,7 +16857,7 @@
         <v>20</v>
       </c>
       <c r="D410">
-        <v>5.8750539782022297</v>
+        <v>6.6352034792626204</v>
       </c>
       <c r="E410" t="str">
         <f t="shared" si="24"/>
@@ -16865,7 +16878,7 @@
       </c>
       <c r="K410">
         <f t="shared" si="26"/>
-        <v>6.7260541202567703</v>
+        <v>7.47367636025864</v>
       </c>
       <c r="L410">
         <f t="shared" si="27"/>
@@ -16883,7 +16896,7 @@
         <v>21</v>
       </c>
       <c r="D411">
-        <v>6.7795010887257297</v>
+        <v>6.3668424845659803</v>
       </c>
       <c r="E411" t="str">
         <f t="shared" si="24"/>
@@ -16904,11 +16917,11 @@
       </c>
       <c r="K411">
         <f t="shared" si="26"/>
-        <v>5.8750539782022297</v>
+        <v>6.6352034792626204</v>
       </c>
       <c r="L411">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
@@ -16922,7 +16935,7 @@
         <v>22</v>
       </c>
       <c r="D412">
-        <v>7.3784951790885298</v>
+        <v>6.0380868420267504</v>
       </c>
       <c r="E412" t="str">
         <f t="shared" si="24"/>
@@ -16943,11 +16956,11 @@
       </c>
       <c r="K412">
         <f t="shared" si="26"/>
-        <v>6.7795010887257297</v>
+        <v>6.3668424845659803</v>
       </c>
       <c r="L412">
         <f t="shared" si="27"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
@@ -16961,7 +16974,7 @@
         <v>23</v>
       </c>
       <c r="D413">
-        <v>6.3379393796294599</v>
+        <v>6.2919769873359401</v>
       </c>
       <c r="E413" t="str">
         <f t="shared" si="24"/>
@@ -16982,11 +16995,11 @@
       </c>
       <c r="K413">
         <f t="shared" si="26"/>
-        <v>7.3784951790885298</v>
+        <v>6.0380868420267504</v>
       </c>
       <c r="L413">
         <f t="shared" si="27"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
@@ -17000,7 +17013,7 @@
         <v>24</v>
       </c>
       <c r="D414">
-        <v>5.2620436663155399</v>
+        <v>5.4445643361398197</v>
       </c>
       <c r="E414" t="str">
         <f t="shared" si="24"/>
@@ -17021,7 +17034,7 @@
       </c>
       <c r="K414">
         <f t="shared" si="26"/>
-        <v>6.3379393796294599</v>
+        <v>6.2919769873359401</v>
       </c>
       <c r="L414">
         <f t="shared" si="27"/>
@@ -17039,7 +17052,7 @@
         <v>25</v>
       </c>
       <c r="D415">
-        <v>6.5431532906914001</v>
+        <v>5.51113201524511</v>
       </c>
       <c r="E415" t="str">
         <f t="shared" si="24"/>
@@ -17060,7 +17073,7 @@
       </c>
       <c r="K415">
         <f t="shared" si="26"/>
-        <v>5.2620436663155399</v>
+        <v>5.4445643361398197</v>
       </c>
       <c r="L415">
         <f t="shared" si="27"/>
@@ -17078,7 +17091,7 @@
         <v>26</v>
       </c>
       <c r="D416">
-        <v>9.6172477190093506</v>
+        <v>5.1344660859985396</v>
       </c>
       <c r="E416" t="str">
         <f t="shared" si="24"/>
@@ -17099,11 +17112,11 @@
       </c>
       <c r="K416">
         <f t="shared" si="26"/>
-        <v>6.5431532906914001</v>
+        <v>5.51113201524511</v>
       </c>
       <c r="L416">
         <f t="shared" si="27"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
@@ -17138,11 +17151,11 @@
       </c>
       <c r="K417">
         <f t="shared" si="26"/>
-        <v>9.6172477190093506</v>
+        <v>5.1344660859985396</v>
       </c>
       <c r="L417">
         <f t="shared" si="27"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
